--- a/raw_data/20200818_saline/20200818_Sensor3_Test_46.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor3_Test_46.xlsx
@@ -1,658 +1,1074 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{489174D8-2336-4D2D-8DD9-D9703DCB5B2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>41058.347035</v>
+        <v>41058.347034999999</v>
       </c>
       <c r="B2" s="1">
         <v>11.405096</v>
       </c>
       <c r="C2" s="1">
-        <v>1159.410000</v>
+        <v>1159.4100000000001</v>
       </c>
       <c r="D2" s="1">
-        <v>-241.996000</v>
+        <v>-241.99600000000001</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>41068.727324</v>
+        <v>41068.727323999999</v>
       </c>
       <c r="G2" s="1">
-        <v>11.407980</v>
+        <v>11.40798</v>
       </c>
       <c r="H2" s="1">
-        <v>1178.720000</v>
+        <v>1178.72</v>
       </c>
       <c r="I2" s="1">
-        <v>-203.588000</v>
+        <v>-203.58799999999999</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>41079.200836</v>
+        <v>41079.200836000004</v>
       </c>
       <c r="L2" s="1">
-        <v>11.410889</v>
+        <v>11.410888999999999</v>
       </c>
       <c r="M2" s="1">
-        <v>1203.700000</v>
+        <v>1203.7</v>
       </c>
       <c r="N2" s="1">
-        <v>-143.515000</v>
+        <v>-143.51499999999999</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>41089.686723</v>
+        <v>41089.686722999999</v>
       </c>
       <c r="Q2" s="1">
         <v>11.413802</v>
       </c>
       <c r="R2" s="1">
-        <v>1211.290000</v>
+        <v>1211.29</v>
       </c>
       <c r="S2" s="1">
-        <v>-123.252000</v>
+        <v>-123.252</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>41100.582838</v>
+        <v>41100.582838000002</v>
       </c>
       <c r="V2" s="1">
         <v>11.416829</v>
       </c>
       <c r="W2" s="1">
-        <v>1218.540000</v>
+        <v>1218.54</v>
       </c>
       <c r="X2" s="1">
-        <v>-104.372000</v>
+        <v>-104.372</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>41110.966619</v>
+        <v>41110.966618999999</v>
       </c>
       <c r="AA2" s="1">
         <v>11.419713</v>
       </c>
       <c r="AB2" s="1">
-        <v>1226.510000</v>
+        <v>1226.51</v>
       </c>
       <c r="AC2" s="1">
-        <v>-88.924800</v>
+        <v>-88.924800000000005</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>41127.443184</v>
+        <v>41127.443184000003</v>
       </c>
       <c r="AF2" s="1">
-        <v>11.424290</v>
+        <v>11.424289999999999</v>
       </c>
       <c r="AG2" s="1">
-        <v>1231.400000</v>
+        <v>1231.4000000000001</v>
       </c>
       <c r="AH2" s="1">
-        <v>-85.271400</v>
+        <v>-85.2714</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>41137.868099</v>
+        <v>41137.868098999999</v>
       </c>
       <c r="AK2" s="1">
-        <v>11.427186</v>
+        <v>11.427186000000001</v>
       </c>
       <c r="AL2" s="1">
-        <v>1238.830000</v>
+        <v>1238.83</v>
       </c>
       <c r="AM2" s="1">
-        <v>-89.257800</v>
+        <v>-89.257800000000003</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
         <v>41148.415729</v>
       </c>
       <c r="AP2" s="1">
-        <v>11.430115</v>
+        <v>11.430115000000001</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1246.880000</v>
+        <v>1246.8800000000001</v>
       </c>
       <c r="AR2" s="1">
-        <v>-101.490000</v>
+        <v>-101.49</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>41159.387030</v>
+        <v>41159.387029999998</v>
       </c>
       <c r="AU2" s="1">
         <v>11.433163</v>
       </c>
       <c r="AV2" s="1">
-        <v>1256.870000</v>
+        <v>1256.8699999999999</v>
       </c>
       <c r="AW2" s="1">
-        <v>-121.052000</v>
+        <v>-121.05200000000001</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>41170.449305</v>
+        <v>41170.449305000002</v>
       </c>
       <c r="AZ2" s="1">
-        <v>11.436236</v>
+        <v>11.436235999999999</v>
       </c>
       <c r="BA2" s="1">
-        <v>1265.260000</v>
+        <v>1265.26</v>
       </c>
       <c r="BB2" s="1">
-        <v>-138.773000</v>
+        <v>-138.773</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>41181.381128</v>
+        <v>41181.381128000001</v>
       </c>
       <c r="BE2" s="1">
         <v>11.439273</v>
       </c>
       <c r="BF2" s="1">
-        <v>1305.030000</v>
+        <v>1305.03</v>
       </c>
       <c r="BG2" s="1">
-        <v>-221.779000</v>
+        <v>-221.779</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
         <v>41194.707143</v>
@@ -661,437 +1077,437 @@
         <v>11.442974</v>
       </c>
       <c r="BK2" s="1">
-        <v>1374.200000</v>
+        <v>1374.2</v>
       </c>
       <c r="BL2" s="1">
-        <v>-360.738000</v>
+        <v>-360.738</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>41209.862440</v>
+        <v>41209.862439999997</v>
       </c>
       <c r="BO2" s="1">
         <v>11.447184</v>
       </c>
       <c r="BP2" s="1">
-        <v>1488.340000</v>
+        <v>1488.34</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-587.991000</v>
+        <v>-587.99099999999999</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>41220.592729</v>
+        <v>41220.592729000004</v>
       </c>
       <c r="BT2" s="1">
         <v>11.450165</v>
       </c>
       <c r="BU2" s="1">
-        <v>1620.490000</v>
+        <v>1620.49</v>
       </c>
       <c r="BV2" s="1">
-        <v>-844.943000</v>
+        <v>-844.94299999999998</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>41231.421047</v>
+        <v>41231.421047000003</v>
       </c>
       <c r="BY2" s="1">
         <v>11.453173</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1774.190000</v>
+        <v>1774.19</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1125.910000</v>
+        <v>-1125.9100000000001</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>41242.258105</v>
+        <v>41242.258105000001</v>
       </c>
       <c r="CD2" s="1">
-        <v>11.456183</v>
+        <v>11.456182999999999</v>
       </c>
       <c r="CE2" s="1">
-        <v>2196.600000</v>
+        <v>2196.6</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1809.560000</v>
+        <v>-1809.56</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>41058.695729</v>
+        <v>41058.695728999999</v>
       </c>
       <c r="B3" s="1">
-        <v>11.405193</v>
+        <v>11.405193000000001</v>
       </c>
       <c r="C3" s="1">
-        <v>1159.190000</v>
+        <v>1159.19</v>
       </c>
       <c r="D3" s="1">
-        <v>-242.291000</v>
+        <v>-242.291</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>41069.453946</v>
+        <v>41069.453946000001</v>
       </c>
       <c r="G3" s="1">
         <v>11.408182</v>
       </c>
       <c r="H3" s="1">
-        <v>1179.110000</v>
+        <v>1179.1099999999999</v>
       </c>
       <c r="I3" s="1">
-        <v>-203.917000</v>
+        <v>-203.917</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>41079.914543</v>
+        <v>41079.914542999999</v>
       </c>
       <c r="L3" s="1">
         <v>11.411087</v>
       </c>
       <c r="M3" s="1">
-        <v>1203.500000</v>
+        <v>1203.5</v>
       </c>
       <c r="N3" s="1">
-        <v>-143.220000</v>
+        <v>-143.22</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>41090.560709</v>
+        <v>41090.560708999998</v>
       </c>
       <c r="Q3" s="1">
         <v>11.414045</v>
       </c>
       <c r="R3" s="1">
-        <v>1211.310000</v>
+        <v>1211.31</v>
       </c>
       <c r="S3" s="1">
-        <v>-123.337000</v>
+        <v>-123.337</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>41100.929043</v>
+        <v>41100.929042999996</v>
       </c>
       <c r="V3" s="1">
-        <v>11.416925</v>
+        <v>11.416925000000001</v>
       </c>
       <c r="W3" s="1">
-        <v>1218.530000</v>
+        <v>1218.53</v>
       </c>
       <c r="X3" s="1">
-        <v>-104.327000</v>
+        <v>-104.327</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>41111.312827</v>
+        <v>41111.312827000002</v>
       </c>
       <c r="AA3" s="1">
-        <v>11.419809</v>
+        <v>11.419809000000001</v>
       </c>
       <c r="AB3" s="1">
-        <v>1226.610000</v>
+        <v>1226.6099999999999</v>
       </c>
       <c r="AC3" s="1">
-        <v>-89.099100</v>
+        <v>-89.099100000000007</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>41127.803776</v>
+        <v>41127.803776000001</v>
       </c>
       <c r="AF3" s="1">
-        <v>11.424390</v>
+        <v>11.424390000000001</v>
       </c>
       <c r="AG3" s="1">
-        <v>1231.480000</v>
+        <v>1231.48</v>
       </c>
       <c r="AH3" s="1">
-        <v>-85.264900</v>
+        <v>-85.264899999999997</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>41138.231698</v>
+        <v>41138.231698000003</v>
       </c>
       <c r="AK3" s="1">
         <v>11.427287</v>
       </c>
       <c r="AL3" s="1">
-        <v>1238.850000</v>
+        <v>1238.8499999999999</v>
       </c>
       <c r="AM3" s="1">
-        <v>-89.211600</v>
+        <v>-89.211600000000004</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>41148.782233</v>
+        <v>41148.782232999998</v>
       </c>
       <c r="AP3" s="1">
-        <v>11.430217</v>
+        <v>11.430217000000001</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1246.860000</v>
+        <v>1246.8599999999999</v>
       </c>
       <c r="AR3" s="1">
-        <v>-101.462000</v>
+        <v>-101.462</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>41159.753114</v>
+        <v>41159.753113999999</v>
       </c>
       <c r="AU3" s="1">
         <v>11.433265</v>
       </c>
       <c r="AV3" s="1">
-        <v>1256.850000</v>
+        <v>1256.8499999999999</v>
       </c>
       <c r="AW3" s="1">
-        <v>-121.087000</v>
+        <v>-121.087</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>41170.805928</v>
+        <v>41170.805928000002</v>
       </c>
       <c r="AZ3" s="1">
         <v>11.436335</v>
       </c>
       <c r="BA3" s="1">
-        <v>1265.290000</v>
+        <v>1265.29</v>
       </c>
       <c r="BB3" s="1">
-        <v>-138.789000</v>
+        <v>-138.78899999999999</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>41181.782920</v>
+        <v>41181.782919999998</v>
       </c>
       <c r="BE3" s="1">
         <v>11.439384</v>
       </c>
       <c r="BF3" s="1">
-        <v>1305.050000</v>
+        <v>1305.05</v>
       </c>
       <c r="BG3" s="1">
-        <v>-221.795000</v>
+        <v>-221.79499999999999</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>41195.469991</v>
+        <v>41195.469990999998</v>
       </c>
       <c r="BJ3" s="1">
-        <v>11.443186</v>
+        <v>11.443186000000001</v>
       </c>
       <c r="BK3" s="1">
-        <v>1374.180000</v>
+        <v>1374.18</v>
       </c>
       <c r="BL3" s="1">
-        <v>-360.757000</v>
+        <v>-360.75700000000001</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>41210.366861</v>
+        <v>41210.366861000002</v>
       </c>
       <c r="BO3" s="1">
         <v>11.447324</v>
       </c>
       <c r="BP3" s="1">
-        <v>1488.320000</v>
+        <v>1488.32</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-587.969000</v>
+        <v>-587.96900000000005</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>41220.737190</v>
+        <v>41220.73719</v>
       </c>
       <c r="BT3" s="1">
         <v>11.450205</v>
       </c>
       <c r="BU3" s="1">
-        <v>1620.470000</v>
+        <v>1620.47</v>
       </c>
       <c r="BV3" s="1">
-        <v>-844.987000</v>
+        <v>-844.98699999999997</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>41231.883782</v>
+        <v>41231.883781999997</v>
       </c>
       <c r="BY3" s="1">
         <v>11.453301</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1774.020000</v>
+        <v>1774.02</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1125.820000</v>
+        <v>-1125.82</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>41242.804200</v>
+        <v>41242.804199999999</v>
       </c>
       <c r="CD3" s="1">
         <v>11.456334</v>
       </c>
       <c r="CE3" s="1">
-        <v>2198.120000</v>
+        <v>2198.12</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1809.990000</v>
+        <v>-1809.99</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>41059.381162</v>
+        <v>41059.381161999998</v>
       </c>
       <c r="B4" s="1">
         <v>11.405384</v>
       </c>
       <c r="C4" s="1">
-        <v>1159.440000</v>
+        <v>1159.44</v>
       </c>
       <c r="D4" s="1">
-        <v>-241.998000</v>
+        <v>-241.99799999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>41069.798172</v>
+        <v>41069.798172000003</v>
       </c>
       <c r="G4" s="1">
         <v>11.408277</v>
       </c>
       <c r="H4" s="1">
-        <v>1179.090000</v>
+        <v>1179.0899999999999</v>
       </c>
       <c r="I4" s="1">
-        <v>-203.764000</v>
+        <v>-203.76400000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>41080.258766</v>
+        <v>41080.258765999999</v>
       </c>
       <c r="L4" s="1">
-        <v>11.411183</v>
+        <v>11.411182999999999</v>
       </c>
       <c r="M4" s="1">
-        <v>1203.740000</v>
+        <v>1203.74</v>
       </c>
       <c r="N4" s="1">
-        <v>-143.179000</v>
+        <v>-143.179</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>41090.786848</v>
+        <v>41090.786848000003</v>
       </c>
       <c r="Q4" s="1">
         <v>11.414107</v>
       </c>
       <c r="R4" s="1">
-        <v>1211.270000</v>
+        <v>1211.27</v>
       </c>
       <c r="S4" s="1">
-        <v>-123.397000</v>
+        <v>-123.39700000000001</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>41101.274755</v>
+        <v>41101.274754999999</v>
       </c>
       <c r="V4" s="1">
         <v>11.417021</v>
       </c>
       <c r="W4" s="1">
-        <v>1218.580000</v>
+        <v>1218.58</v>
       </c>
       <c r="X4" s="1">
-        <v>-104.377000</v>
+        <v>-104.377</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>41111.660981</v>
+        <v>41111.660981000001</v>
       </c>
       <c r="AA4" s="1">
-        <v>11.419906</v>
+        <v>11.419905999999999</v>
       </c>
       <c r="AB4" s="1">
-        <v>1226.430000</v>
+        <v>1226.43</v>
       </c>
       <c r="AC4" s="1">
-        <v>-89.122900</v>
+        <v>-89.122900000000001</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>41128.457006</v>
+        <v>41128.457005999997</v>
       </c>
       <c r="AF4" s="1">
         <v>11.424571</v>
       </c>
       <c r="AG4" s="1">
-        <v>1231.440000</v>
+        <v>1231.44</v>
       </c>
       <c r="AH4" s="1">
-        <v>-85.259800</v>
+        <v>-85.259799999999998</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
         <v>41138.887873</v>
@@ -1100,13 +1516,13 @@
         <v>11.427469</v>
       </c>
       <c r="AL4" s="1">
-        <v>1238.780000</v>
+        <v>1238.78</v>
       </c>
       <c r="AM4" s="1">
-        <v>-89.251200</v>
+        <v>-89.251199999999997</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
         <v>41149.444227</v>
@@ -1115,28 +1531,28 @@
         <v>11.430401</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1246.880000</v>
+        <v>1246.8800000000001</v>
       </c>
       <c r="AR4" s="1">
-        <v>-101.474000</v>
+        <v>-101.474</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>41160.429621</v>
+        <v>41160.429621000003</v>
       </c>
       <c r="AU4" s="1">
         <v>11.433453</v>
       </c>
       <c r="AV4" s="1">
-        <v>1256.870000</v>
+        <v>1256.8699999999999</v>
       </c>
       <c r="AW4" s="1">
-        <v>-121.077000</v>
+        <v>-121.077</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
         <v>41171.460646</v>
@@ -1145,58 +1561,58 @@
         <v>11.436517</v>
       </c>
       <c r="BA4" s="1">
-        <v>1265.290000</v>
+        <v>1265.29</v>
       </c>
       <c r="BB4" s="1">
-        <v>-138.764000</v>
+        <v>-138.76400000000001</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>41182.444057</v>
+        <v>41182.444057000001</v>
       </c>
       <c r="BE4" s="1">
         <v>11.439568</v>
       </c>
       <c r="BF4" s="1">
-        <v>1305.000000</v>
+        <v>1305</v>
       </c>
       <c r="BG4" s="1">
-        <v>-221.783000</v>
+        <v>-221.78299999999999</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>41196.161414</v>
+        <v>41196.161414000002</v>
       </c>
       <c r="BJ4" s="1">
-        <v>11.443378</v>
+        <v>11.443377999999999</v>
       </c>
       <c r="BK4" s="1">
-        <v>1374.200000</v>
+        <v>1374.2</v>
       </c>
       <c r="BL4" s="1">
-        <v>-360.764000</v>
+        <v>-360.76400000000001</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>41210.785458</v>
+        <v>41210.785457999998</v>
       </c>
       <c r="BO4" s="1">
-        <v>11.447440</v>
+        <v>11.44744</v>
       </c>
       <c r="BP4" s="1">
-        <v>1488.360000</v>
+        <v>1488.36</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-587.961000</v>
+        <v>-587.96100000000001</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
         <v>41221.147912</v>
@@ -1205,180 +1621,180 @@
         <v>11.450319</v>
       </c>
       <c r="BU4" s="1">
-        <v>1620.430000</v>
+        <v>1620.43</v>
       </c>
       <c r="BV4" s="1">
-        <v>-845.142000</v>
+        <v>-845.14200000000005</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>41232.335143</v>
+        <v>41232.335142999997</v>
       </c>
       <c r="BY4" s="1">
         <v>11.453426</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1774.160000</v>
+        <v>1774.16</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1125.810000</v>
+        <v>-1125.81</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>41243.325495</v>
+        <v>41243.325494999997</v>
       </c>
       <c r="CD4" s="1">
         <v>11.456479</v>
       </c>
       <c r="CE4" s="1">
-        <v>2197.310000</v>
+        <v>2197.31</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1807.220000</v>
+        <v>-1807.22</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>41059.764108</v>
+        <v>41059.764108000003</v>
       </c>
       <c r="B5" s="1">
-        <v>11.405490</v>
+        <v>11.40549</v>
       </c>
       <c r="C5" s="1">
-        <v>1159.580000</v>
+        <v>1159.58</v>
       </c>
       <c r="D5" s="1">
-        <v>-242.382000</v>
+        <v>-242.38200000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>41070.146829</v>
+        <v>41070.146828999998</v>
       </c>
       <c r="G5" s="1">
         <v>11.408374</v>
       </c>
       <c r="H5" s="1">
-        <v>1178.220000</v>
+        <v>1178.22</v>
       </c>
       <c r="I5" s="1">
-        <v>-203.489000</v>
+        <v>-203.489</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>41080.608943</v>
+        <v>41080.608942999999</v>
       </c>
       <c r="L5" s="1">
-        <v>11.411280</v>
+        <v>11.41128</v>
       </c>
       <c r="M5" s="1">
-        <v>1203.650000</v>
+        <v>1203.6500000000001</v>
       </c>
       <c r="N5" s="1">
-        <v>-143.124000</v>
+        <v>-143.124</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>41091.434625</v>
+        <v>41091.434625000002</v>
       </c>
       <c r="Q5" s="1">
         <v>11.414287</v>
       </c>
       <c r="R5" s="1">
-        <v>1211.170000</v>
+        <v>1211.17</v>
       </c>
       <c r="S5" s="1">
-        <v>-123.299000</v>
+        <v>-123.29900000000001</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>41101.934931</v>
+        <v>41101.934931000003</v>
       </c>
       <c r="V5" s="1">
         <v>11.417204</v>
       </c>
       <c r="W5" s="1">
-        <v>1218.550000</v>
+        <v>1218.55</v>
       </c>
       <c r="X5" s="1">
-        <v>-104.389000</v>
+        <v>-104.389</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>41112.326613</v>
+        <v>41112.326612999997</v>
       </c>
       <c r="AA5" s="1">
-        <v>11.420091</v>
+        <v>11.420090999999999</v>
       </c>
       <c r="AB5" s="1">
-        <v>1226.550000</v>
+        <v>1226.55</v>
       </c>
       <c r="AC5" s="1">
-        <v>-89.135100</v>
+        <v>-89.135099999999994</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>41128.832975</v>
+        <v>41128.832974999998</v>
       </c>
       <c r="AF5" s="1">
         <v>11.424676</v>
       </c>
       <c r="AG5" s="1">
-        <v>1231.430000</v>
+        <v>1231.43</v>
       </c>
       <c r="AH5" s="1">
-        <v>-85.283400</v>
+        <v>-85.2834</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
         <v>41139.276241</v>
       </c>
       <c r="AK5" s="1">
-        <v>11.427577</v>
+        <v>11.427576999999999</v>
       </c>
       <c r="AL5" s="1">
-        <v>1238.800000</v>
+        <v>1238.8</v>
       </c>
       <c r="AM5" s="1">
-        <v>-89.226000</v>
+        <v>-89.225999999999999</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
         <v>41149.864835</v>
       </c>
       <c r="AP5" s="1">
-        <v>11.430518</v>
+        <v>11.430517999999999</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1246.880000</v>
+        <v>1246.8800000000001</v>
       </c>
       <c r="AR5" s="1">
-        <v>-101.489000</v>
+        <v>-101.489</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
         <v>41160.872549</v>
@@ -1387,73 +1803,73 @@
         <v>11.433576</v>
       </c>
       <c r="AV5" s="1">
-        <v>1256.850000</v>
+        <v>1256.8499999999999</v>
       </c>
       <c r="AW5" s="1">
-        <v>-121.043000</v>
+        <v>-121.04300000000001</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>41171.915511</v>
+        <v>41171.915510999999</v>
       </c>
       <c r="AZ5" s="1">
         <v>11.436643</v>
       </c>
       <c r="BA5" s="1">
-        <v>1265.280000</v>
+        <v>1265.28</v>
       </c>
       <c r="BB5" s="1">
-        <v>-138.792000</v>
+        <v>-138.792</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>41182.897398</v>
+        <v>41182.897398000001</v>
       </c>
       <c r="BE5" s="1">
-        <v>11.439694</v>
+        <v>11.439693999999999</v>
       </c>
       <c r="BF5" s="1">
-        <v>1305.010000</v>
+        <v>1305.01</v>
       </c>
       <c r="BG5" s="1">
-        <v>-221.802000</v>
+        <v>-221.80199999999999</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>41196.603349</v>
+        <v>41196.603348999997</v>
       </c>
       <c r="BJ5" s="1">
-        <v>11.443501</v>
+        <v>11.443500999999999</v>
       </c>
       <c r="BK5" s="1">
-        <v>1374.190000</v>
+        <v>1374.19</v>
       </c>
       <c r="BL5" s="1">
-        <v>-360.735000</v>
+        <v>-360.73500000000001</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
         <v>41211.181762</v>
       </c>
       <c r="BO5" s="1">
-        <v>11.447550</v>
+        <v>11.44755</v>
       </c>
       <c r="BP5" s="1">
-        <v>1488.410000</v>
+        <v>1488.41</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-587.991000</v>
+        <v>-587.99099999999999</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
         <v>41221.577909</v>
@@ -1462,497 +1878,497 @@
         <v>11.450438</v>
       </c>
       <c r="BU5" s="1">
-        <v>1620.320000</v>
+        <v>1620.32</v>
       </c>
       <c r="BV5" s="1">
-        <v>-845.444000</v>
+        <v>-845.44399999999996</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>41232.765701</v>
+        <v>41232.765700999997</v>
       </c>
       <c r="BY5" s="1">
-        <v>11.453546</v>
+        <v>11.453545999999999</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1774.240000</v>
+        <v>1774.24</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1125.860000</v>
+        <v>-1125.8599999999999</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>41243.863655</v>
+        <v>41243.863655000001</v>
       </c>
       <c r="CD5" s="1">
         <v>11.456629</v>
       </c>
       <c r="CE5" s="1">
-        <v>2196.580000</v>
+        <v>2196.58</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1810.190000</v>
+        <v>-1810.19</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>41060.069609</v>
+        <v>41060.069608999998</v>
       </c>
       <c r="B6" s="1">
-        <v>11.405575</v>
+        <v>11.405575000000001</v>
       </c>
       <c r="C6" s="1">
-        <v>1159.360000</v>
+        <v>1159.3599999999999</v>
       </c>
       <c r="D6" s="1">
-        <v>-242.261000</v>
+        <v>-242.261</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>41070.810475</v>
+        <v>41070.810474999998</v>
       </c>
       <c r="G6" s="1">
-        <v>11.408558</v>
+        <v>11.408557999999999</v>
       </c>
       <c r="H6" s="1">
-        <v>1178.750000</v>
+        <v>1178.75</v>
       </c>
       <c r="I6" s="1">
-        <v>-204.145000</v>
+        <v>-204.14500000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>41081.257710</v>
+        <v>41081.257709999998</v>
       </c>
       <c r="L6" s="1">
-        <v>11.411460</v>
+        <v>11.41146</v>
       </c>
       <c r="M6" s="1">
-        <v>1203.700000</v>
+        <v>1203.7</v>
       </c>
       <c r="N6" s="1">
-        <v>-143.464000</v>
+        <v>-143.464</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>41091.830927</v>
+        <v>41091.830927000003</v>
       </c>
       <c r="Q6" s="1">
-        <v>11.414397</v>
+        <v>11.414396999999999</v>
       </c>
       <c r="R6" s="1">
-        <v>1211.210000</v>
+        <v>1211.21</v>
       </c>
       <c r="S6" s="1">
-        <v>-123.258000</v>
+        <v>-123.258</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
         <v>41102.304977</v>
       </c>
       <c r="V6" s="1">
-        <v>11.417307</v>
+        <v>11.417306999999999</v>
       </c>
       <c r="W6" s="1">
-        <v>1218.520000</v>
+        <v>1218.52</v>
       </c>
       <c r="X6" s="1">
-        <v>-104.378000</v>
+        <v>-104.378</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
         <v>41112.706584</v>
       </c>
       <c r="AA6" s="1">
-        <v>11.420196</v>
+        <v>11.420196000000001</v>
       </c>
       <c r="AB6" s="1">
-        <v>1226.580000</v>
+        <v>1226.58</v>
       </c>
       <c r="AC6" s="1">
-        <v>-89.050600</v>
+        <v>-89.050600000000003</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
         <v>41129.179677</v>
       </c>
       <c r="AF6" s="1">
-        <v>11.424772</v>
+        <v>11.424772000000001</v>
       </c>
       <c r="AG6" s="1">
-        <v>1231.440000</v>
+        <v>1231.44</v>
       </c>
       <c r="AH6" s="1">
-        <v>-85.266800</v>
+        <v>-85.266800000000003</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>41139.625952</v>
+        <v>41139.625952000002</v>
       </c>
       <c r="AK6" s="1">
         <v>11.427674</v>
       </c>
       <c r="AL6" s="1">
-        <v>1238.810000</v>
+        <v>1238.81</v>
       </c>
       <c r="AM6" s="1">
-        <v>-89.215800</v>
+        <v>-89.215800000000002</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>41150.241299</v>
+        <v>41150.241299000001</v>
       </c>
       <c r="AP6" s="1">
-        <v>11.430623</v>
+        <v>11.430623000000001</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1246.890000</v>
+        <v>1246.8900000000001</v>
       </c>
       <c r="AR6" s="1">
-        <v>-101.506000</v>
+        <v>-101.506</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>41161.235620</v>
+        <v>41161.235619999999</v>
       </c>
       <c r="AU6" s="1">
-        <v>11.433677</v>
+        <v>11.433676999999999</v>
       </c>
       <c r="AV6" s="1">
-        <v>1256.890000</v>
+        <v>1256.8900000000001</v>
       </c>
       <c r="AW6" s="1">
-        <v>-121.050000</v>
+        <v>-121.05</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>41172.274582</v>
+        <v>41172.274581999998</v>
       </c>
       <c r="AZ6" s="1">
         <v>11.436743</v>
       </c>
       <c r="BA6" s="1">
-        <v>1265.280000</v>
+        <v>1265.28</v>
       </c>
       <c r="BB6" s="1">
-        <v>-138.766000</v>
+        <v>-138.76599999999999</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>41183.258982</v>
+        <v>41183.258981999999</v>
       </c>
       <c r="BE6" s="1">
-        <v>11.439794</v>
+        <v>11.439793999999999</v>
       </c>
       <c r="BF6" s="1">
-        <v>1305.020000</v>
+        <v>1305.02</v>
       </c>
       <c r="BG6" s="1">
-        <v>-221.806000</v>
+        <v>-221.80600000000001</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>41197.123156</v>
+        <v>41197.123156000001</v>
       </c>
       <c r="BJ6" s="1">
         <v>11.443645</v>
       </c>
       <c r="BK6" s="1">
-        <v>1374.200000</v>
+        <v>1374.2</v>
       </c>
       <c r="BL6" s="1">
-        <v>-360.747000</v>
+        <v>-360.74700000000001</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>41211.610087</v>
+        <v>41211.610087000001</v>
       </c>
       <c r="BO6" s="1">
-        <v>11.447669</v>
+        <v>11.447668999999999</v>
       </c>
       <c r="BP6" s="1">
-        <v>1488.380000</v>
+        <v>1488.38</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-588.016000</v>
+        <v>-588.01599999999996</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>41222.399291</v>
+        <v>41222.399291000002</v>
       </c>
       <c r="BT6" s="1">
         <v>11.450666</v>
       </c>
       <c r="BU6" s="1">
-        <v>1620.330000</v>
+        <v>1620.33</v>
       </c>
       <c r="BV6" s="1">
-        <v>-845.506000</v>
+        <v>-845.50599999999997</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>41233.184788</v>
+        <v>41233.184787999999</v>
       </c>
       <c r="BY6" s="1">
         <v>11.453662</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1774.130000</v>
+        <v>1774.13</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1126.010000</v>
+        <v>-1126.01</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>41244.402837</v>
+        <v>41244.402837000001</v>
       </c>
       <c r="CD6" s="1">
-        <v>11.456779</v>
+        <v>11.456778999999999</v>
       </c>
       <c r="CE6" s="1">
-        <v>2199.100000</v>
+        <v>2199.1</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1808.060000</v>
+        <v>-1808.06</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>41060.888999</v>
+        <v>41060.888999000003</v>
       </c>
       <c r="B7" s="1">
         <v>11.405802</v>
       </c>
       <c r="C7" s="1">
-        <v>1159.440000</v>
+        <v>1159.44</v>
       </c>
       <c r="D7" s="1">
-        <v>-242.261000</v>
+        <v>-242.261</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>41071.177018</v>
+        <v>41071.177018000002</v>
       </c>
       <c r="G7" s="1">
-        <v>11.408660</v>
+        <v>11.408659999999999</v>
       </c>
       <c r="H7" s="1">
-        <v>1179.030000</v>
+        <v>1179.03</v>
       </c>
       <c r="I7" s="1">
-        <v>-203.084000</v>
+        <v>-203.084</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>41081.645085</v>
+        <v>41081.645084999996</v>
       </c>
       <c r="L7" s="1">
-        <v>11.411568</v>
+        <v>11.411568000000001</v>
       </c>
       <c r="M7" s="1">
-        <v>1204.020000</v>
+        <v>1204.02</v>
       </c>
       <c r="N7" s="1">
-        <v>-143.689000</v>
+        <v>-143.68899999999999</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
         <v>41092.178624</v>
       </c>
       <c r="Q7" s="1">
-        <v>11.414494</v>
+        <v>11.414493999999999</v>
       </c>
       <c r="R7" s="1">
-        <v>1211.280000</v>
+        <v>1211.28</v>
       </c>
       <c r="S7" s="1">
-        <v>-123.264000</v>
+        <v>-123.264</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>41102.649170</v>
+        <v>41102.649169999997</v>
       </c>
       <c r="V7" s="1">
         <v>11.417403</v>
       </c>
       <c r="W7" s="1">
-        <v>1218.530000</v>
+        <v>1218.53</v>
       </c>
       <c r="X7" s="1">
-        <v>-104.357000</v>
+        <v>-104.357</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>41113.054739</v>
+        <v>41113.054738999999</v>
       </c>
       <c r="AA7" s="1">
-        <v>11.420293</v>
+        <v>11.420292999999999</v>
       </c>
       <c r="AB7" s="1">
-        <v>1226.520000</v>
+        <v>1226.52</v>
       </c>
       <c r="AC7" s="1">
-        <v>-89.065300</v>
+        <v>-89.065299999999993</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>41129.523902</v>
+        <v>41129.523902000001</v>
       </c>
       <c r="AF7" s="1">
         <v>11.424868</v>
       </c>
       <c r="AG7" s="1">
-        <v>1231.450000</v>
+        <v>1231.45</v>
       </c>
       <c r="AH7" s="1">
-        <v>-85.270900</v>
+        <v>-85.270899999999997</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>41139.975141</v>
+        <v>41139.975141000003</v>
       </c>
       <c r="AK7" s="1">
         <v>11.427771</v>
       </c>
       <c r="AL7" s="1">
-        <v>1238.800000</v>
+        <v>1238.8</v>
       </c>
       <c r="AM7" s="1">
-        <v>-89.229700</v>
+        <v>-89.229699999999994</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>41150.601932</v>
+        <v>41150.601931999998</v>
       </c>
       <c r="AP7" s="1">
         <v>11.430723</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1246.860000</v>
+        <v>1246.8599999999999</v>
       </c>
       <c r="AR7" s="1">
-        <v>-101.489000</v>
+        <v>-101.489</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>41161.602164</v>
+        <v>41161.602164000004</v>
       </c>
       <c r="AU7" s="1">
         <v>11.433778</v>
       </c>
       <c r="AV7" s="1">
-        <v>1256.860000</v>
+        <v>1256.8599999999999</v>
       </c>
       <c r="AW7" s="1">
-        <v>-121.041000</v>
+        <v>-121.041</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>41172.632232</v>
+        <v>41172.632232000004</v>
       </c>
       <c r="AZ7" s="1">
         <v>11.436842</v>
       </c>
       <c r="BA7" s="1">
-        <v>1265.260000</v>
+        <v>1265.26</v>
       </c>
       <c r="BB7" s="1">
-        <v>-138.742000</v>
+        <v>-138.74199999999999</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>41183.617631</v>
+        <v>41183.617631000001</v>
       </c>
       <c r="BE7" s="1">
-        <v>11.439894</v>
+        <v>11.439894000000001</v>
       </c>
       <c r="BF7" s="1">
-        <v>1305.000000</v>
+        <v>1305</v>
       </c>
       <c r="BG7" s="1">
-        <v>-221.800000</v>
+        <v>-221.8</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>41197.741171</v>
+        <v>41197.741171000001</v>
       </c>
       <c r="BJ7" s="1">
-        <v>11.443817</v>
+        <v>11.443816999999999</v>
       </c>
       <c r="BK7" s="1">
-        <v>1374.170000</v>
+        <v>1374.17</v>
       </c>
       <c r="BL7" s="1">
-        <v>-360.730000</v>
+        <v>-360.73</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
         <v>41212.000689</v>
@@ -1961,362 +2377,362 @@
         <v>11.447778</v>
       </c>
       <c r="BP7" s="1">
-        <v>1488.360000</v>
+        <v>1488.36</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-588.031000</v>
+        <v>-588.03099999999995</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>41222.842706</v>
+        <v>41222.842706000003</v>
       </c>
       <c r="BT7" s="1">
-        <v>11.450790</v>
+        <v>11.45079</v>
       </c>
       <c r="BU7" s="1">
-        <v>1620.290000</v>
+        <v>1620.29</v>
       </c>
       <c r="BV7" s="1">
-        <v>-845.565000</v>
+        <v>-845.56500000000005</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>41233.609861</v>
+        <v>41233.609860999997</v>
       </c>
       <c r="BY7" s="1">
-        <v>11.453781</v>
+        <v>11.453780999999999</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1774.250000</v>
+        <v>1774.25</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1125.820000</v>
+        <v>-1125.82</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>41245.250010</v>
+        <v>41245.250010000003</v>
       </c>
       <c r="CD7" s="1">
-        <v>11.457014</v>
+        <v>11.457013999999999</v>
       </c>
       <c r="CE7" s="1">
-        <v>2197.450000</v>
+        <v>2197.4499999999998</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1810.230000</v>
+        <v>-1810.23</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>41061.093884</v>
+        <v>41061.093884000002</v>
       </c>
       <c r="B8" s="1">
         <v>11.405859</v>
       </c>
       <c r="C8" s="1">
-        <v>1159.350000</v>
+        <v>1159.3499999999999</v>
       </c>
       <c r="D8" s="1">
-        <v>-242.472000</v>
+        <v>-242.47200000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>41071.523723</v>
+        <v>41071.523722999998</v>
       </c>
       <c r="G8" s="1">
         <v>11.408757</v>
       </c>
       <c r="H8" s="1">
-        <v>1178.910000</v>
+        <v>1178.9100000000001</v>
       </c>
       <c r="I8" s="1">
-        <v>-204.496000</v>
+        <v>-204.49600000000001</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>41081.989805</v>
+        <v>41081.989804999997</v>
       </c>
       <c r="L8" s="1">
         <v>11.411664</v>
       </c>
       <c r="M8" s="1">
-        <v>1203.610000</v>
+        <v>1203.6099999999999</v>
       </c>
       <c r="N8" s="1">
-        <v>-143.765000</v>
+        <v>-143.76499999999999</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>41092.523872</v>
+        <v>41092.523871999998</v>
       </c>
       <c r="Q8" s="1">
-        <v>11.414590</v>
+        <v>11.41459</v>
       </c>
       <c r="R8" s="1">
-        <v>1211.270000</v>
+        <v>1211.27</v>
       </c>
       <c r="S8" s="1">
-        <v>-123.288000</v>
+        <v>-123.288</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>41102.992401</v>
+        <v>41102.992401000003</v>
       </c>
       <c r="V8" s="1">
         <v>11.417498</v>
       </c>
       <c r="W8" s="1">
-        <v>1218.630000</v>
+        <v>1218.6300000000001</v>
       </c>
       <c r="X8" s="1">
-        <v>-104.322000</v>
+        <v>-104.322</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>41113.403923</v>
+        <v>41113.403922999998</v>
       </c>
       <c r="AA8" s="1">
-        <v>11.420390</v>
+        <v>11.420389999999999</v>
       </c>
       <c r="AB8" s="1">
-        <v>1226.580000</v>
+        <v>1226.58</v>
       </c>
       <c r="AC8" s="1">
-        <v>-89.058200</v>
+        <v>-89.058199999999999</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>41129.946494</v>
+        <v>41129.946494000003</v>
       </c>
       <c r="AF8" s="1">
         <v>11.424985</v>
       </c>
       <c r="AG8" s="1">
-        <v>1231.420000</v>
+        <v>1231.42</v>
       </c>
       <c r="AH8" s="1">
-        <v>-85.283800</v>
+        <v>-85.283799999999999</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>41140.392767</v>
+        <v>41140.392766999998</v>
       </c>
       <c r="AK8" s="1">
         <v>11.427887</v>
       </c>
       <c r="AL8" s="1">
-        <v>1238.800000</v>
+        <v>1238.8</v>
       </c>
       <c r="AM8" s="1">
-        <v>-89.234100</v>
+        <v>-89.234099999999998</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>41151.027954</v>
+        <v>41151.027953999997</v>
       </c>
       <c r="AP8" s="1">
-        <v>11.430841</v>
+        <v>11.430840999999999</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1246.870000</v>
+        <v>1246.8699999999999</v>
       </c>
       <c r="AR8" s="1">
-        <v>-101.459000</v>
+        <v>-101.459</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>41162.031700</v>
+        <v>41162.0317</v>
       </c>
       <c r="AU8" s="1">
-        <v>11.433898</v>
+        <v>11.433897999999999</v>
       </c>
       <c r="AV8" s="1">
-        <v>1256.870000</v>
+        <v>1256.8699999999999</v>
       </c>
       <c r="AW8" s="1">
-        <v>-121.062000</v>
+        <v>-121.062</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>41173.051843</v>
+        <v>41173.051843000001</v>
       </c>
       <c r="AZ8" s="1">
         <v>11.436959</v>
       </c>
       <c r="BA8" s="1">
-        <v>1265.250000</v>
+        <v>1265.25</v>
       </c>
       <c r="BB8" s="1">
-        <v>-138.765000</v>
+        <v>-138.76499999999999</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>41184.023850</v>
+        <v>41184.023849999998</v>
       </c>
       <c r="BE8" s="1">
         <v>11.440007</v>
       </c>
       <c r="BF8" s="1">
-        <v>1305.010000</v>
+        <v>1305.01</v>
       </c>
       <c r="BG8" s="1">
-        <v>-221.791000</v>
+        <v>-221.791</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>41198.466818</v>
+        <v>41198.466818000001</v>
       </c>
       <c r="BJ8" s="1">
-        <v>11.444019</v>
+        <v>11.444019000000001</v>
       </c>
       <c r="BK8" s="1">
-        <v>1374.200000</v>
+        <v>1374.2</v>
       </c>
       <c r="BL8" s="1">
-        <v>-360.735000</v>
+        <v>-360.73500000000001</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>41212.423247</v>
+        <v>41212.423246999999</v>
       </c>
       <c r="BO8" s="1">
-        <v>11.447895</v>
+        <v>11.447895000000001</v>
       </c>
       <c r="BP8" s="1">
-        <v>1488.350000</v>
+        <v>1488.35</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-587.999000</v>
+        <v>-587.99900000000002</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>41223.578273</v>
+        <v>41223.578272999999</v>
       </c>
       <c r="BT8" s="1">
         <v>11.450994</v>
       </c>
       <c r="BU8" s="1">
-        <v>1620.400000</v>
+        <v>1620.4</v>
       </c>
       <c r="BV8" s="1">
-        <v>-845.556000</v>
+        <v>-845.55600000000004</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>41234.346916</v>
+        <v>41234.346916000002</v>
       </c>
       <c r="BY8" s="1">
-        <v>11.453985</v>
+        <v>11.453984999999999</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1774.020000</v>
+        <v>1774.02</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1125.880000</v>
+        <v>-1125.8800000000001</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>41245.482597</v>
+        <v>41245.482597000002</v>
       </c>
       <c r="CD8" s="1">
-        <v>11.457078</v>
+        <v>11.457077999999999</v>
       </c>
       <c r="CE8" s="1">
-        <v>2197.350000</v>
+        <v>2197.35</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1809.940000</v>
+        <v>-1809.94</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>41061.437079</v>
+        <v>41061.437079000003</v>
       </c>
       <c r="B9" s="1">
-        <v>11.405955</v>
+        <v>11.405955000000001</v>
       </c>
       <c r="C9" s="1">
-        <v>1159.530000</v>
+        <v>1159.53</v>
       </c>
       <c r="D9" s="1">
-        <v>-242.063000</v>
+        <v>-242.06299999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>41071.871450</v>
+        <v>41071.871449999999</v>
       </c>
       <c r="G9" s="1">
-        <v>11.408853</v>
+        <v>11.408853000000001</v>
       </c>
       <c r="H9" s="1">
-        <v>1179.020000</v>
+        <v>1179.02</v>
       </c>
       <c r="I9" s="1">
-        <v>-204.058000</v>
+        <v>-204.05799999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>41082.336011</v>
+        <v>41082.336010999999</v>
       </c>
       <c r="L9" s="1">
-        <v>11.411760</v>
+        <v>11.411759999999999</v>
       </c>
       <c r="M9" s="1">
-        <v>1203.630000</v>
+        <v>1203.6300000000001</v>
       </c>
       <c r="N9" s="1">
-        <v>-143.367000</v>
+        <v>-143.36699999999999</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
         <v>41092.945967</v>
@@ -2325,240 +2741,240 @@
         <v>11.414707</v>
       </c>
       <c r="R9" s="1">
-        <v>1211.260000</v>
+        <v>1211.26</v>
       </c>
       <c r="S9" s="1">
-        <v>-123.370000</v>
+        <v>-123.37</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>41103.415489</v>
+        <v>41103.415488999999</v>
       </c>
       <c r="V9" s="1">
         <v>11.417615</v>
       </c>
       <c r="W9" s="1">
-        <v>1218.570000</v>
+        <v>1218.57</v>
       </c>
       <c r="X9" s="1">
-        <v>-104.398000</v>
+        <v>-104.398</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>41113.815602</v>
+        <v>41113.815602000002</v>
       </c>
       <c r="AA9" s="1">
-        <v>11.420504</v>
+        <v>11.420503999999999</v>
       </c>
       <c r="AB9" s="1">
-        <v>1226.530000</v>
+        <v>1226.53</v>
       </c>
       <c r="AC9" s="1">
-        <v>-89.247100</v>
+        <v>-89.247100000000003</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>41130.225244</v>
+        <v>41130.225244000001</v>
       </c>
       <c r="AF9" s="1">
         <v>11.425063</v>
       </c>
       <c r="AG9" s="1">
-        <v>1231.420000</v>
+        <v>1231.42</v>
       </c>
       <c r="AH9" s="1">
-        <v>-85.291900</v>
+        <v>-85.291899999999998</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>41140.672976</v>
+        <v>41140.672976000002</v>
       </c>
       <c r="AK9" s="1">
         <v>11.427965</v>
       </c>
       <c r="AL9" s="1">
-        <v>1238.820000</v>
+        <v>1238.82</v>
       </c>
       <c r="AM9" s="1">
-        <v>-89.238700</v>
+        <v>-89.238699999999994</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>41151.321126</v>
+        <v>41151.321126000003</v>
       </c>
       <c r="AP9" s="1">
         <v>11.430923</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1246.860000</v>
+        <v>1246.8599999999999</v>
       </c>
       <c r="AR9" s="1">
-        <v>-101.493000</v>
+        <v>-101.49299999999999</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
         <v>41162.331285</v>
       </c>
       <c r="AU9" s="1">
-        <v>11.433981</v>
+        <v>11.433980999999999</v>
       </c>
       <c r="AV9" s="1">
-        <v>1256.840000</v>
+        <v>1256.8399999999999</v>
       </c>
       <c r="AW9" s="1">
-        <v>-121.054000</v>
+        <v>-121.054</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>41173.351397</v>
+        <v>41173.351396999999</v>
       </c>
       <c r="AZ9" s="1">
         <v>11.437042</v>
       </c>
       <c r="BA9" s="1">
-        <v>1265.300000</v>
+        <v>1265.3</v>
       </c>
       <c r="BB9" s="1">
-        <v>-138.754000</v>
+        <v>-138.75399999999999</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>41184.343732</v>
+        <v>41184.343732000001</v>
       </c>
       <c r="BE9" s="1">
-        <v>11.440095</v>
+        <v>11.440094999999999</v>
       </c>
       <c r="BF9" s="1">
-        <v>1305.050000</v>
+        <v>1305.05</v>
       </c>
       <c r="BG9" s="1">
-        <v>-221.774000</v>
+        <v>-221.774</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>41199.149809</v>
+        <v>41199.149809000002</v>
       </c>
       <c r="BJ9" s="1">
         <v>11.444208</v>
       </c>
       <c r="BK9" s="1">
-        <v>1374.210000</v>
+        <v>1374.21</v>
       </c>
       <c r="BL9" s="1">
-        <v>-360.718000</v>
+        <v>-360.71800000000002</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>41213.140959</v>
+        <v>41213.140958999997</v>
       </c>
       <c r="BO9" s="1">
         <v>11.448095</v>
       </c>
       <c r="BP9" s="1">
-        <v>1488.390000</v>
+        <v>1488.39</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-587.961000</v>
+        <v>-587.96100000000001</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>41223.710741</v>
+        <v>41223.710741000003</v>
       </c>
       <c r="BT9" s="1">
         <v>11.451031</v>
       </c>
       <c r="BU9" s="1">
-        <v>1620.350000</v>
+        <v>1620.35</v>
       </c>
       <c r="BV9" s="1">
-        <v>-845.784000</v>
+        <v>-845.78399999999999</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>41234.472900</v>
+        <v>41234.472900000001</v>
       </c>
       <c r="BY9" s="1">
-        <v>11.454020</v>
+        <v>11.45402</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1774.150000</v>
+        <v>1774.15</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1125.920000</v>
+        <v>-1125.92</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>41246.000455</v>
+        <v>41246.000455000001</v>
       </c>
       <c r="CD9" s="1">
         <v>11.457222</v>
       </c>
       <c r="CE9" s="1">
-        <v>2198.920000</v>
+        <v>2198.92</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1808.630000</v>
+        <v>-1808.63</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>41061.873291</v>
+        <v>41061.873291000004</v>
       </c>
       <c r="B10" s="1">
-        <v>11.406076</v>
+        <v>11.406076000000001</v>
       </c>
       <c r="C10" s="1">
-        <v>1159.520000</v>
+        <v>1159.52</v>
       </c>
       <c r="D10" s="1">
-        <v>-242.323000</v>
+        <v>-242.32300000000001</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>41072.287065</v>
+        <v>41072.287064999997</v>
       </c>
       <c r="G10" s="1">
-        <v>11.408969</v>
+        <v>11.408969000000001</v>
       </c>
       <c r="H10" s="1">
-        <v>1178.110000</v>
+        <v>1178.1099999999999</v>
       </c>
       <c r="I10" s="1">
-        <v>-203.506000</v>
+        <v>-203.506</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
         <v>41082.743724</v>
@@ -2567,315 +2983,315 @@
         <v>11.411873</v>
       </c>
       <c r="M10" s="1">
-        <v>1203.980000</v>
+        <v>1203.98</v>
       </c>
       <c r="N10" s="1">
-        <v>-143.503000</v>
+        <v>-143.50299999999999</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>41093.226173</v>
+        <v>41093.226173000003</v>
       </c>
       <c r="Q10" s="1">
         <v>11.414785</v>
       </c>
       <c r="R10" s="1">
-        <v>1211.190000</v>
+        <v>1211.19</v>
       </c>
       <c r="S10" s="1">
-        <v>-123.363000</v>
+        <v>-123.363</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>41103.689311</v>
+        <v>41103.689311000002</v>
       </c>
       <c r="V10" s="1">
         <v>11.417691</v>
       </c>
       <c r="W10" s="1">
-        <v>1218.580000</v>
+        <v>1218.58</v>
       </c>
       <c r="X10" s="1">
-        <v>-104.356000</v>
+        <v>-104.35599999999999</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>41114.098850</v>
+        <v>41114.098850000002</v>
       </c>
       <c r="AA10" s="1">
-        <v>11.420583</v>
+        <v>11.420583000000001</v>
       </c>
       <c r="AB10" s="1">
-        <v>1226.410000</v>
+        <v>1226.4100000000001</v>
       </c>
       <c r="AC10" s="1">
-        <v>-89.002500</v>
+        <v>-89.002499999999998</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>41130.567493</v>
+        <v>41130.567493000002</v>
       </c>
       <c r="AF10" s="1">
         <v>11.425158</v>
       </c>
       <c r="AG10" s="1">
-        <v>1231.440000</v>
+        <v>1231.44</v>
       </c>
       <c r="AH10" s="1">
-        <v>-85.316400</v>
+        <v>-85.316400000000002</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>41141.020712</v>
+        <v>41141.020711999998</v>
       </c>
       <c r="AK10" s="1">
         <v>11.428061</v>
       </c>
       <c r="AL10" s="1">
-        <v>1238.770000</v>
+        <v>1238.77</v>
       </c>
       <c r="AM10" s="1">
-        <v>-89.247400</v>
+        <v>-89.247399999999999</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>41151.685680</v>
+        <v>41151.685680000002</v>
       </c>
       <c r="AP10" s="1">
-        <v>11.431024</v>
+        <v>11.431024000000001</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1246.880000</v>
+        <v>1246.8800000000001</v>
       </c>
       <c r="AR10" s="1">
-        <v>-101.488000</v>
+        <v>-101.488</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>41162.696833</v>
+        <v>41162.696833000002</v>
       </c>
       <c r="AU10" s="1">
         <v>11.434082</v>
       </c>
       <c r="AV10" s="1">
-        <v>1256.880000</v>
+        <v>1256.8800000000001</v>
       </c>
       <c r="AW10" s="1">
-        <v>-121.050000</v>
+        <v>-121.05</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>41173.711491</v>
+        <v>41173.711491000002</v>
       </c>
       <c r="AZ10" s="1">
         <v>11.437142</v>
       </c>
       <c r="BA10" s="1">
-        <v>1265.270000</v>
+        <v>1265.27</v>
       </c>
       <c r="BB10" s="1">
-        <v>-138.765000</v>
+        <v>-138.76499999999999</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>41184.703333</v>
+        <v>41184.703332999998</v>
       </c>
       <c r="BE10" s="1">
-        <v>11.440195</v>
+        <v>11.440194999999999</v>
       </c>
       <c r="BF10" s="1">
-        <v>1305.040000</v>
+        <v>1305.04</v>
       </c>
       <c r="BG10" s="1">
-        <v>-221.819000</v>
+        <v>-221.81899999999999</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>41199.334321</v>
+        <v>41199.334321000002</v>
       </c>
       <c r="BJ10" s="1">
-        <v>11.444260</v>
+        <v>11.44426</v>
       </c>
       <c r="BK10" s="1">
-        <v>1374.230000</v>
+        <v>1374.23</v>
       </c>
       <c r="BL10" s="1">
-        <v>-360.778000</v>
+        <v>-360.77800000000002</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>41213.251070</v>
+        <v>41213.251069999998</v>
       </c>
       <c r="BO10" s="1">
-        <v>11.448125</v>
+        <v>11.448124999999999</v>
       </c>
       <c r="BP10" s="1">
-        <v>1488.330000</v>
+        <v>1488.33</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-587.988000</v>
+        <v>-587.98800000000006</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>41224.122384</v>
+        <v>41224.122384000002</v>
       </c>
       <c r="BT10" s="1">
         <v>11.451145</v>
       </c>
       <c r="BU10" s="1">
-        <v>1620.630000</v>
+        <v>1620.63</v>
       </c>
       <c r="BV10" s="1">
-        <v>-845.809000</v>
+        <v>-845.80899999999997</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>41234.888546</v>
+        <v>41234.888546000002</v>
       </c>
       <c r="BY10" s="1">
         <v>11.454136</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1774.070000</v>
+        <v>1774.07</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1125.780000</v>
+        <v>-1125.78</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>41246.520263</v>
+        <v>41246.520262999999</v>
       </c>
       <c r="CD10" s="1">
         <v>11.457367</v>
       </c>
       <c r="CE10" s="1">
-        <v>2196.750000</v>
+        <v>2196.75</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1807.470000</v>
+        <v>-1807.47</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>41062.144871</v>
+        <v>41062.144870999997</v>
       </c>
       <c r="B11" s="1">
-        <v>11.406151</v>
+        <v>11.406150999999999</v>
       </c>
       <c r="C11" s="1">
-        <v>1159.910000</v>
+        <v>1159.9100000000001</v>
       </c>
       <c r="D11" s="1">
-        <v>-242.561000</v>
+        <v>-242.56100000000001</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>41072.575242</v>
+        <v>41072.575241999999</v>
       </c>
       <c r="G11" s="1">
         <v>11.409049</v>
       </c>
       <c r="H11" s="1">
-        <v>1179.090000</v>
+        <v>1179.0899999999999</v>
       </c>
       <c r="I11" s="1">
-        <v>-203.897000</v>
+        <v>-203.89699999999999</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>41083.024955</v>
+        <v>41083.024955000001</v>
       </c>
       <c r="L11" s="1">
         <v>11.411951</v>
       </c>
       <c r="M11" s="1">
-        <v>1203.710000</v>
+        <v>1203.71</v>
       </c>
       <c r="N11" s="1">
-        <v>-143.634000</v>
+        <v>-143.63399999999999</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>41093.576349</v>
+        <v>41093.576349000003</v>
       </c>
       <c r="Q11" s="1">
         <v>11.414882</v>
       </c>
       <c r="R11" s="1">
-        <v>1211.150000</v>
+        <v>1211.1500000000001</v>
       </c>
       <c r="S11" s="1">
-        <v>-123.350000</v>
+        <v>-123.35</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>41104.033539</v>
+        <v>41104.033538999996</v>
       </c>
       <c r="V11" s="1">
-        <v>11.417787</v>
+        <v>11.417787000000001</v>
       </c>
       <c r="W11" s="1">
-        <v>1218.670000</v>
+        <v>1218.67</v>
       </c>
       <c r="X11" s="1">
-        <v>-104.374000</v>
+        <v>-104.374</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>41114.446049</v>
+        <v>41114.446048999998</v>
       </c>
       <c r="AA11" s="1">
         <v>11.420679</v>
       </c>
       <c r="AB11" s="1">
-        <v>1226.400000</v>
+        <v>1226.4000000000001</v>
       </c>
       <c r="AC11" s="1">
-        <v>-88.999600</v>
+        <v>-88.999600000000001</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
         <v>41130.910248</v>
@@ -2884,482 +3300,482 @@
         <v>11.425253</v>
       </c>
       <c r="AG11" s="1">
-        <v>1231.460000</v>
+        <v>1231.46</v>
       </c>
       <c r="AH11" s="1">
-        <v>-85.283000</v>
+        <v>-85.283000000000001</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>41141.367869</v>
+        <v>41141.367869000002</v>
       </c>
       <c r="AK11" s="1">
         <v>11.428158</v>
       </c>
       <c r="AL11" s="1">
-        <v>1238.830000</v>
+        <v>1238.83</v>
       </c>
       <c r="AM11" s="1">
-        <v>-89.213200</v>
+        <v>-89.213200000000001</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>41152.042303</v>
+        <v>41152.042303000002</v>
       </c>
       <c r="AP11" s="1">
-        <v>11.431123</v>
+        <v>11.431122999999999</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1246.880000</v>
+        <v>1246.8800000000001</v>
       </c>
       <c r="AR11" s="1">
-        <v>-101.467000</v>
+        <v>-101.467</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>41163.060443</v>
+        <v>41163.060443000002</v>
       </c>
       <c r="AU11" s="1">
-        <v>11.434183</v>
+        <v>11.434183000000001</v>
       </c>
       <c r="AV11" s="1">
-        <v>1256.870000</v>
+        <v>1256.8699999999999</v>
       </c>
       <c r="AW11" s="1">
-        <v>-121.058000</v>
+        <v>-121.05800000000001</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>41174.070627</v>
+        <v>41174.070627000001</v>
       </c>
       <c r="AZ11" s="1">
-        <v>11.437242</v>
+        <v>11.437241999999999</v>
       </c>
       <c r="BA11" s="1">
-        <v>1265.290000</v>
+        <v>1265.29</v>
       </c>
       <c r="BB11" s="1">
-        <v>-138.783000</v>
+        <v>-138.78299999999999</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>41185.066439</v>
+        <v>41185.066439000002</v>
       </c>
       <c r="BE11" s="1">
         <v>11.440296</v>
       </c>
       <c r="BF11" s="1">
-        <v>1305.050000</v>
+        <v>1305.05</v>
       </c>
       <c r="BG11" s="1">
-        <v>-221.807000</v>
+        <v>-221.80699999999999</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>41199.917616</v>
+        <v>41199.917615999999</v>
       </c>
       <c r="BJ11" s="1">
-        <v>11.444422</v>
+        <v>11.444421999999999</v>
       </c>
       <c r="BK11" s="1">
-        <v>1374.170000</v>
+        <v>1374.17</v>
       </c>
       <c r="BL11" s="1">
-        <v>-360.771000</v>
+        <v>-360.77100000000002</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>41213.662752</v>
+        <v>41213.662751999997</v>
       </c>
       <c r="BO11" s="1">
-        <v>11.448240</v>
+        <v>11.44824</v>
       </c>
       <c r="BP11" s="1">
-        <v>1488.360000</v>
+        <v>1488.36</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-588.004000</v>
+        <v>-588.00400000000002</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>41224.551952</v>
+        <v>41224.551952000002</v>
       </c>
       <c r="BT11" s="1">
         <v>11.451264</v>
       </c>
       <c r="BU11" s="1">
-        <v>1620.620000</v>
+        <v>1620.62</v>
       </c>
       <c r="BV11" s="1">
-        <v>-845.892000</v>
+        <v>-845.89200000000005</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>41235.337425</v>
+        <v>41235.337424999998</v>
       </c>
       <c r="BY11" s="1">
-        <v>11.454260</v>
+        <v>11.45426</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1774.210000</v>
+        <v>1774.21</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1126.070000</v>
+        <v>-1126.07</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>41247.037089</v>
+        <v>41247.037088999998</v>
       </c>
       <c r="CD11" s="1">
-        <v>11.457510</v>
+        <v>11.457509999999999</v>
       </c>
       <c r="CE11" s="1">
-        <v>2196.100000</v>
+        <v>2196.1</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1809.710000</v>
+        <v>-1809.71</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>41062.486153</v>
+        <v>41062.486152999998</v>
       </c>
       <c r="B12" s="1">
-        <v>11.406246</v>
+        <v>11.406245999999999</v>
       </c>
       <c r="C12" s="1">
-        <v>1159.450000</v>
+        <v>1159.45</v>
       </c>
       <c r="D12" s="1">
-        <v>-242.087000</v>
+        <v>-242.08699999999999</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>41072.918011</v>
+        <v>41072.918011000002</v>
       </c>
       <c r="G12" s="1">
         <v>11.409144</v>
       </c>
       <c r="H12" s="1">
-        <v>1178.960000</v>
+        <v>1178.96</v>
       </c>
       <c r="I12" s="1">
-        <v>-204.292000</v>
+        <v>-204.292</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>41083.373146</v>
+        <v>41083.373145999998</v>
       </c>
       <c r="L12" s="1">
         <v>11.412048</v>
       </c>
       <c r="M12" s="1">
-        <v>1203.720000</v>
+        <v>1203.72</v>
       </c>
       <c r="N12" s="1">
-        <v>-143.364000</v>
+        <v>-143.364</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>41093.922588</v>
+        <v>41093.922588000001</v>
       </c>
       <c r="Q12" s="1">
         <v>11.414978</v>
       </c>
       <c r="R12" s="1">
-        <v>1211.240000</v>
+        <v>1211.24</v>
       </c>
       <c r="S12" s="1">
-        <v>-123.262000</v>
+        <v>-123.262</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>41104.376238</v>
+        <v>41104.376237999997</v>
       </c>
       <c r="V12" s="1">
-        <v>11.417882</v>
+        <v>11.417882000000001</v>
       </c>
       <c r="W12" s="1">
-        <v>1218.580000</v>
+        <v>1218.58</v>
       </c>
       <c r="X12" s="1">
-        <v>-104.333000</v>
+        <v>-104.333</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>41115.000050</v>
+        <v>41115.000050000002</v>
       </c>
       <c r="AA12" s="1">
         <v>11.420833</v>
       </c>
       <c r="AB12" s="1">
-        <v>1226.470000</v>
+        <v>1226.47</v>
       </c>
       <c r="AC12" s="1">
-        <v>-89.041500</v>
+        <v>-89.041499999999999</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>41131.597179</v>
+        <v>41131.597178999997</v>
       </c>
       <c r="AF12" s="1">
-        <v>11.425444</v>
+        <v>11.425444000000001</v>
       </c>
       <c r="AG12" s="1">
-        <v>1231.370000</v>
+        <v>1231.3699999999999</v>
       </c>
       <c r="AH12" s="1">
-        <v>-85.248100</v>
+        <v>-85.248099999999994</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>41142.067725</v>
+        <v>41142.067725000001</v>
       </c>
       <c r="AK12" s="1">
         <v>11.428352</v>
       </c>
       <c r="AL12" s="1">
-        <v>1238.810000</v>
+        <v>1238.81</v>
       </c>
       <c r="AM12" s="1">
-        <v>-89.240900</v>
+        <v>-89.240899999999996</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>41152.771919</v>
+        <v>41152.771918999999</v>
       </c>
       <c r="AP12" s="1">
         <v>11.431326</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1246.880000</v>
+        <v>1246.8800000000001</v>
       </c>
       <c r="AR12" s="1">
-        <v>-101.445000</v>
+        <v>-101.44499999999999</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>41163.789551</v>
+        <v>41163.789551000002</v>
       </c>
       <c r="AU12" s="1">
         <v>11.434386</v>
       </c>
       <c r="AV12" s="1">
-        <v>1256.850000</v>
+        <v>1256.8499999999999</v>
       </c>
       <c r="AW12" s="1">
-        <v>-121.054000</v>
+        <v>-121.054</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>41174.787809</v>
+        <v>41174.787809000001</v>
       </c>
       <c r="AZ12" s="1">
         <v>11.437441</v>
       </c>
       <c r="BA12" s="1">
-        <v>1265.270000</v>
+        <v>1265.27</v>
       </c>
       <c r="BB12" s="1">
-        <v>-138.781000</v>
+        <v>-138.78100000000001</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>41185.786100</v>
+        <v>41185.786099999998</v>
       </c>
       <c r="BE12" s="1">
         <v>11.440496</v>
       </c>
       <c r="BF12" s="1">
-        <v>1305.020000</v>
+        <v>1305.02</v>
       </c>
       <c r="BG12" s="1">
-        <v>-221.802000</v>
+        <v>-221.80199999999999</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>41200.047568</v>
+        <v>41200.047568000002</v>
       </c>
       <c r="BJ12" s="1">
-        <v>11.444458</v>
+        <v>11.444457999999999</v>
       </c>
       <c r="BK12" s="1">
-        <v>1374.180000</v>
+        <v>1374.18</v>
       </c>
       <c r="BL12" s="1">
-        <v>-360.766000</v>
+        <v>-360.76600000000002</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>41214.059890</v>
+        <v>41214.059889999997</v>
       </c>
       <c r="BO12" s="1">
-        <v>11.448350</v>
+        <v>11.44835</v>
       </c>
       <c r="BP12" s="1">
-        <v>1488.340000</v>
+        <v>1488.34</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-587.979000</v>
+        <v>-587.97900000000004</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>41224.973519</v>
+        <v>41224.973518999999</v>
       </c>
       <c r="BT12" s="1">
-        <v>11.451382</v>
+        <v>11.451382000000001</v>
       </c>
       <c r="BU12" s="1">
-        <v>1620.690000</v>
+        <v>1620.69</v>
       </c>
       <c r="BV12" s="1">
-        <v>-845.875000</v>
+        <v>-845.875</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>41235.765473</v>
+        <v>41235.765472999999</v>
       </c>
       <c r="BY12" s="1">
-        <v>11.454379</v>
+        <v>11.454378999999999</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1774.140000</v>
+        <v>1774.14</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1125.850000</v>
+        <v>-1125.8499999999999</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>41247.558385</v>
+        <v>41247.558384999997</v>
       </c>
       <c r="CD12" s="1">
-        <v>11.457655</v>
+        <v>11.457655000000001</v>
       </c>
       <c r="CE12" s="1">
-        <v>2196.020000</v>
+        <v>2196.02</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1809.240000</v>
+        <v>-1809.24</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
         <v>41062.828855</v>
       </c>
       <c r="B13" s="1">
-        <v>11.406341</v>
+        <v>11.406340999999999</v>
       </c>
       <c r="C13" s="1">
-        <v>1159.680000</v>
+        <v>1159.68</v>
       </c>
       <c r="D13" s="1">
-        <v>-242.398000</v>
+        <v>-242.398</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>41073.263228</v>
+        <v>41073.263228000003</v>
       </c>
       <c r="G13" s="1">
-        <v>11.409240</v>
+        <v>11.40924</v>
       </c>
       <c r="H13" s="1">
-        <v>1178.420000</v>
+        <v>1178.42</v>
       </c>
       <c r="I13" s="1">
-        <v>-204.028000</v>
+        <v>-204.02799999999999</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>41083.717371</v>
+        <v>41083.717370999999</v>
       </c>
       <c r="L13" s="1">
         <v>11.412144</v>
       </c>
       <c r="M13" s="1">
-        <v>1203.950000</v>
+        <v>1203.95</v>
       </c>
       <c r="N13" s="1">
-        <v>-143.741000</v>
+        <v>-143.74100000000001</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>41094.618475</v>
+        <v>41094.618475000003</v>
       </c>
       <c r="Q13" s="1">
         <v>11.415172</v>
       </c>
       <c r="R13" s="1">
-        <v>1211.310000</v>
+        <v>1211.31</v>
       </c>
       <c r="S13" s="1">
-        <v>-123.335000</v>
+        <v>-123.33499999999999</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
         <v>41105.063726</v>
@@ -3368,148 +3784,148 @@
         <v>11.418073</v>
       </c>
       <c r="W13" s="1">
-        <v>1218.490000</v>
+        <v>1218.49</v>
       </c>
       <c r="X13" s="1">
-        <v>-104.403000</v>
+        <v>-104.40300000000001</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>41115.491119</v>
+        <v>41115.491118999998</v>
       </c>
       <c r="AA13" s="1">
-        <v>11.420970</v>
+        <v>11.420970000000001</v>
       </c>
       <c r="AB13" s="1">
-        <v>1226.480000</v>
+        <v>1226.48</v>
       </c>
       <c r="AC13" s="1">
-        <v>-89.063500</v>
+        <v>-89.063500000000005</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>41131.940446</v>
+        <v>41131.940446000001</v>
       </c>
       <c r="AF13" s="1">
-        <v>11.425539</v>
+        <v>11.425539000000001</v>
       </c>
       <c r="AG13" s="1">
-        <v>1231.420000</v>
+        <v>1231.42</v>
       </c>
       <c r="AH13" s="1">
-        <v>-85.293500</v>
+        <v>-85.293499999999995</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>41142.414460</v>
+        <v>41142.41446</v>
       </c>
       <c r="AK13" s="1">
-        <v>11.428448</v>
+        <v>11.428447999999999</v>
       </c>
       <c r="AL13" s="1">
-        <v>1238.790000</v>
+        <v>1238.79</v>
       </c>
       <c r="AM13" s="1">
-        <v>-89.237900</v>
+        <v>-89.237899999999996</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>41153.148846</v>
+        <v>41153.148845999996</v>
       </c>
       <c r="AP13" s="1">
-        <v>11.431430</v>
+        <v>11.431430000000001</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1246.890000</v>
+        <v>1246.8900000000001</v>
       </c>
       <c r="AR13" s="1">
-        <v>-101.492000</v>
+        <v>-101.492</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>41164.156064</v>
+        <v>41164.156064000003</v>
       </c>
       <c r="AU13" s="1">
         <v>11.434488</v>
       </c>
       <c r="AV13" s="1">
-        <v>1256.880000</v>
+        <v>1256.8800000000001</v>
       </c>
       <c r="AW13" s="1">
-        <v>-121.063000</v>
+        <v>-121.063</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>41175.146544</v>
+        <v>41175.146544000003</v>
       </c>
       <c r="AZ13" s="1">
         <v>11.437541</v>
       </c>
       <c r="BA13" s="1">
-        <v>1265.280000</v>
+        <v>1265.28</v>
       </c>
       <c r="BB13" s="1">
-        <v>-138.746000</v>
+        <v>-138.74600000000001</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>41186.173970</v>
+        <v>41186.173970000003</v>
       </c>
       <c r="BE13" s="1">
         <v>11.440604</v>
       </c>
       <c r="BF13" s="1">
-        <v>1305.030000</v>
+        <v>1305.03</v>
       </c>
       <c r="BG13" s="1">
-        <v>-221.748000</v>
+        <v>-221.74799999999999</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>41200.590687</v>
+        <v>41200.590687000004</v>
       </c>
       <c r="BJ13" s="1">
         <v>11.444609</v>
       </c>
       <c r="BK13" s="1">
-        <v>1374.160000</v>
+        <v>1374.16</v>
       </c>
       <c r="BL13" s="1">
-        <v>-360.727000</v>
+        <v>-360.72699999999998</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>41214.483160</v>
+        <v>41214.483160000003</v>
       </c>
       <c r="BO13" s="1">
         <v>11.448468</v>
       </c>
       <c r="BP13" s="1">
-        <v>1488.410000</v>
+        <v>1488.41</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-587.975000</v>
+        <v>-587.97500000000002</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
         <v>41225.381232</v>
@@ -3518,60 +3934,60 @@
         <v>11.451495</v>
       </c>
       <c r="BU13" s="1">
-        <v>1620.790000</v>
+        <v>1620.79</v>
       </c>
       <c r="BV13" s="1">
-        <v>-845.905000</v>
+        <v>-845.90499999999997</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>41236.181618</v>
+        <v>41236.181618000002</v>
       </c>
       <c r="BY13" s="1">
         <v>11.454495</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1774.180000</v>
+        <v>1774.18</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1125.900000</v>
+        <v>-1125.9000000000001</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>41248.117344</v>
+        <v>41248.117343999998</v>
       </c>
       <c r="CD13" s="1">
-        <v>11.457810</v>
+        <v>11.45781</v>
       </c>
       <c r="CE13" s="1">
-        <v>2196.870000</v>
+        <v>2196.87</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1807.340000</v>
+        <v>-1807.34</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>41063.508870</v>
+        <v>41063.508869999998</v>
       </c>
       <c r="B14" s="1">
-        <v>11.406530</v>
+        <v>11.40653</v>
       </c>
       <c r="C14" s="1">
-        <v>1159.810000</v>
+        <v>1159.81</v>
       </c>
       <c r="D14" s="1">
-        <v>-242.039000</v>
+        <v>-242.03899999999999</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
         <v>41073.953126</v>
@@ -3580,315 +3996,315 @@
         <v>11.409431</v>
       </c>
       <c r="H14" s="1">
-        <v>1178.550000</v>
+        <v>1178.55</v>
       </c>
       <c r="I14" s="1">
-        <v>-203.848000</v>
+        <v>-203.84800000000001</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>41084.410777</v>
+        <v>41084.410776999997</v>
       </c>
       <c r="L14" s="1">
         <v>11.412336</v>
       </c>
       <c r="M14" s="1">
-        <v>1203.670000</v>
+        <v>1203.67</v>
       </c>
       <c r="N14" s="1">
-        <v>-143.572000</v>
+        <v>-143.572</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
         <v>41094.970361</v>
       </c>
       <c r="Q14" s="1">
-        <v>11.415270</v>
+        <v>11.41527</v>
       </c>
       <c r="R14" s="1">
-        <v>1211.290000</v>
+        <v>1211.29</v>
       </c>
       <c r="S14" s="1">
-        <v>-123.361000</v>
+        <v>-123.361</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>41105.407917</v>
+        <v>41105.407916999997</v>
       </c>
       <c r="V14" s="1">
-        <v>11.418169</v>
+        <v>11.418169000000001</v>
       </c>
       <c r="W14" s="1">
-        <v>1218.610000</v>
+        <v>1218.6099999999999</v>
       </c>
       <c r="X14" s="1">
-        <v>-104.380000</v>
+        <v>-104.38</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>41122.206960</v>
+        <v>41122.206960000003</v>
       </c>
       <c r="AA14" s="1">
-        <v>11.422835</v>
+        <v>11.422834999999999</v>
       </c>
       <c r="AB14" s="1">
-        <v>1226.550000</v>
+        <v>1226.55</v>
       </c>
       <c r="AC14" s="1">
-        <v>-89.071800</v>
+        <v>-89.071799999999996</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>41132.285130</v>
+        <v>41132.285129999997</v>
       </c>
       <c r="AF14" s="1">
         <v>11.425635</v>
       </c>
       <c r="AG14" s="1">
-        <v>1231.440000</v>
+        <v>1231.44</v>
       </c>
       <c r="AH14" s="1">
-        <v>-85.237400</v>
+        <v>-85.237399999999994</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>41142.763147</v>
+        <v>41142.763146999998</v>
       </c>
       <c r="AK14" s="1">
         <v>11.428545</v>
       </c>
       <c r="AL14" s="1">
-        <v>1238.770000</v>
+        <v>1238.77</v>
       </c>
       <c r="AM14" s="1">
-        <v>-89.240900</v>
+        <v>-89.240899999999996</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>41153.506958</v>
+        <v>41153.506957999998</v>
       </c>
       <c r="AP14" s="1">
-        <v>11.431530</v>
+        <v>11.43153</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1246.870000</v>
+        <v>1246.8699999999999</v>
       </c>
       <c r="AR14" s="1">
-        <v>-101.505000</v>
+        <v>-101.505</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>41164.518143</v>
+        <v>41164.518143000001</v>
       </c>
       <c r="AU14" s="1">
         <v>11.434588</v>
       </c>
       <c r="AV14" s="1">
-        <v>1256.870000</v>
+        <v>1256.8699999999999</v>
       </c>
       <c r="AW14" s="1">
-        <v>-121.070000</v>
+        <v>-121.07</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>41175.504032</v>
+        <v>41175.504031999997</v>
       </c>
       <c r="AZ14" s="1">
-        <v>11.437640</v>
+        <v>11.43764</v>
       </c>
       <c r="BA14" s="1">
-        <v>1265.270000</v>
+        <v>1265.27</v>
       </c>
       <c r="BB14" s="1">
-        <v>-138.772000</v>
+        <v>-138.77199999999999</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>41186.536051</v>
+        <v>41186.536051000003</v>
       </c>
       <c r="BE14" s="1">
         <v>11.440704</v>
       </c>
       <c r="BF14" s="1">
-        <v>1305.000000</v>
+        <v>1305</v>
       </c>
       <c r="BG14" s="1">
-        <v>-221.774000</v>
+        <v>-221.774</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
         <v>41201.269214</v>
       </c>
       <c r="BJ14" s="1">
-        <v>11.444797</v>
+        <v>11.444796999999999</v>
       </c>
       <c r="BK14" s="1">
-        <v>1374.140000</v>
+        <v>1374.14</v>
       </c>
       <c r="BL14" s="1">
-        <v>-360.743000</v>
+        <v>-360.74299999999999</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>41214.879933</v>
+        <v>41214.879932999997</v>
       </c>
       <c r="BO14" s="1">
-        <v>11.448578</v>
+        <v>11.448577999999999</v>
       </c>
       <c r="BP14" s="1">
-        <v>1488.380000</v>
+        <v>1488.38</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-588.029000</v>
+        <v>-588.029</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>41225.798893</v>
+        <v>41225.798892999999</v>
       </c>
       <c r="BT14" s="1">
         <v>11.451611</v>
       </c>
       <c r="BU14" s="1">
-        <v>1620.930000</v>
+        <v>1620.93</v>
       </c>
       <c r="BV14" s="1">
-        <v>-845.955000</v>
+        <v>-845.95500000000004</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>41236.630535</v>
+        <v>41236.630534999997</v>
       </c>
       <c r="BY14" s="1">
-        <v>11.454620</v>
+        <v>11.45462</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1774.110000</v>
+        <v>1774.11</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1125.920000</v>
+        <v>-1125.92</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>41248.639136</v>
+        <v>41248.639135999998</v>
       </c>
       <c r="CD14" s="1">
         <v>11.457955</v>
       </c>
       <c r="CE14" s="1">
-        <v>2196.370000</v>
+        <v>2196.37</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1809.410000</v>
+        <v>-1809.41</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>41063.851636</v>
+        <v>41063.851635999999</v>
       </c>
       <c r="B15" s="1">
         <v>11.406625</v>
       </c>
       <c r="C15" s="1">
-        <v>1160.180000</v>
+        <v>1160.18</v>
       </c>
       <c r="D15" s="1">
-        <v>-242.618000</v>
+        <v>-242.61799999999999</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>41074.298838</v>
+        <v>41074.298838000002</v>
       </c>
       <c r="G15" s="1">
-        <v>11.409527</v>
+        <v>11.409527000000001</v>
       </c>
       <c r="H15" s="1">
-        <v>1178.880000</v>
+        <v>1178.8800000000001</v>
       </c>
       <c r="I15" s="1">
-        <v>-203.736000</v>
+        <v>-203.73599999999999</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>41084.754654</v>
+        <v>41084.754653999997</v>
       </c>
       <c r="L15" s="1">
-        <v>11.412432</v>
+        <v>11.412432000000001</v>
       </c>
       <c r="M15" s="1">
-        <v>1203.880000</v>
+        <v>1203.8800000000001</v>
       </c>
       <c r="N15" s="1">
-        <v>-143.346000</v>
+        <v>-143.346</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>41095.316810</v>
+        <v>41095.316809999997</v>
       </c>
       <c r="Q15" s="1">
-        <v>11.415366</v>
+        <v>11.415366000000001</v>
       </c>
       <c r="R15" s="1">
-        <v>1211.250000</v>
+        <v>1211.25</v>
       </c>
       <c r="S15" s="1">
-        <v>-123.366000</v>
+        <v>-123.366</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>41105.752695</v>
+        <v>41105.752695000003</v>
       </c>
       <c r="V15" s="1">
         <v>11.418265</v>
       </c>
       <c r="W15" s="1">
-        <v>1218.680000</v>
+        <v>1218.68</v>
       </c>
       <c r="X15" s="1">
-        <v>-104.410000</v>
+        <v>-104.41</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
         <v>41122.483688</v>
@@ -3897,330 +4313,330 @@
         <v>11.422912</v>
       </c>
       <c r="AB15" s="1">
-        <v>1226.540000</v>
+        <v>1226.54</v>
       </c>
       <c r="AC15" s="1">
-        <v>-88.883300</v>
+        <v>-88.883300000000006</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>41132.936874</v>
+        <v>41132.936873999999</v>
       </c>
       <c r="AF15" s="1">
-        <v>11.425816</v>
+        <v>11.425815999999999</v>
       </c>
       <c r="AG15" s="1">
-        <v>1231.370000</v>
+        <v>1231.3699999999999</v>
       </c>
       <c r="AH15" s="1">
-        <v>-85.304900</v>
+        <v>-85.304900000000004</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>41143.416161</v>
+        <v>41143.416161000001</v>
       </c>
       <c r="AK15" s="1">
         <v>11.428727</v>
       </c>
       <c r="AL15" s="1">
-        <v>1238.810000</v>
+        <v>1238.81</v>
       </c>
       <c r="AM15" s="1">
-        <v>-89.227700</v>
+        <v>-89.227699999999999</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>41154.173580</v>
+        <v>41154.173580000002</v>
       </c>
       <c r="AP15" s="1">
-        <v>11.431715</v>
+        <v>11.431715000000001</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1246.870000</v>
+        <v>1246.8699999999999</v>
       </c>
       <c r="AR15" s="1">
-        <v>-101.509000</v>
+        <v>-101.509</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>41165.183808</v>
+        <v>41165.183808000002</v>
       </c>
       <c r="AU15" s="1">
         <v>11.434773</v>
       </c>
       <c r="AV15" s="1">
-        <v>1256.860000</v>
+        <v>1256.8599999999999</v>
       </c>
       <c r="AW15" s="1">
-        <v>-121.050000</v>
+        <v>-121.05</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>41176.163216</v>
+        <v>41176.163216000001</v>
       </c>
       <c r="AZ15" s="1">
         <v>11.437823</v>
       </c>
       <c r="BA15" s="1">
-        <v>1265.270000</v>
+        <v>1265.27</v>
       </c>
       <c r="BB15" s="1">
-        <v>-138.765000</v>
+        <v>-138.76499999999999</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>41187.245825</v>
+        <v>41187.245824999998</v>
       </c>
       <c r="BE15" s="1">
-        <v>11.440902</v>
+        <v>11.440901999999999</v>
       </c>
       <c r="BF15" s="1">
-        <v>1305.050000</v>
+        <v>1305.05</v>
       </c>
       <c r="BG15" s="1">
-        <v>-221.788000</v>
+        <v>-221.78800000000001</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>41201.916990</v>
+        <v>41201.916989999998</v>
       </c>
       <c r="BJ15" s="1">
         <v>11.444977</v>
       </c>
       <c r="BK15" s="1">
-        <v>1374.180000</v>
+        <v>1374.18</v>
       </c>
       <c r="BL15" s="1">
-        <v>-360.720000</v>
+        <v>-360.72</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>41215.303052</v>
+        <v>41215.303052000003</v>
       </c>
       <c r="BO15" s="1">
-        <v>11.448695</v>
+        <v>11.448695000000001</v>
       </c>
       <c r="BP15" s="1">
-        <v>1488.360000</v>
+        <v>1488.36</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-588.002000</v>
+        <v>-588.00199999999995</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>41226.211565</v>
+        <v>41226.211564999998</v>
       </c>
       <c r="BT15" s="1">
         <v>11.451725</v>
       </c>
       <c r="BU15" s="1">
-        <v>1620.910000</v>
+        <v>1620.91</v>
       </c>
       <c r="BV15" s="1">
-        <v>-845.753000</v>
+        <v>-845.75300000000004</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>41237.062512</v>
+        <v>41237.062511999997</v>
       </c>
       <c r="BY15" s="1">
-        <v>11.454740</v>
+        <v>11.454739999999999</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1774.210000</v>
+        <v>1774.21</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1125.980000</v>
+        <v>-1125.98</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>41249.155967</v>
+        <v>41249.155966999999</v>
       </c>
       <c r="CD15" s="1">
-        <v>11.458099</v>
+        <v>11.458099000000001</v>
       </c>
       <c r="CE15" s="1">
-        <v>2196.310000</v>
+        <v>2196.31</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1809.080000</v>
+        <v>-1809.08</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>41064.195331</v>
+        <v>41064.195331000003</v>
       </c>
       <c r="B16" s="1">
-        <v>11.406721</v>
+        <v>11.406720999999999</v>
       </c>
       <c r="C16" s="1">
-        <v>1159.890000</v>
+        <v>1159.8900000000001</v>
       </c>
       <c r="D16" s="1">
-        <v>-242.167000</v>
+        <v>-242.167</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>41074.645077</v>
+        <v>41074.645077000001</v>
       </c>
       <c r="G16" s="1">
-        <v>11.409624</v>
+        <v>11.409624000000001</v>
       </c>
       <c r="H16" s="1">
-        <v>1178.940000</v>
+        <v>1178.94</v>
       </c>
       <c r="I16" s="1">
-        <v>-204.240000</v>
+        <v>-204.24</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>41085.090792</v>
+        <v>41085.090792000003</v>
       </c>
       <c r="L16" s="1">
         <v>11.412525</v>
       </c>
       <c r="M16" s="1">
-        <v>1203.920000</v>
+        <v>1203.92</v>
       </c>
       <c r="N16" s="1">
-        <v>-143.127000</v>
+        <v>-143.12700000000001</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
         <v>41095.965612</v>
       </c>
       <c r="Q16" s="1">
-        <v>11.415546</v>
+        <v>11.415546000000001</v>
       </c>
       <c r="R16" s="1">
-        <v>1211.230000</v>
+        <v>1211.23</v>
       </c>
       <c r="S16" s="1">
-        <v>-123.326000</v>
+        <v>-123.32599999999999</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>41106.410332</v>
+        <v>41106.410331999999</v>
       </c>
       <c r="V16" s="1">
         <v>11.418447</v>
       </c>
       <c r="W16" s="1">
-        <v>1218.520000</v>
+        <v>1218.52</v>
       </c>
       <c r="X16" s="1">
-        <v>-104.419000</v>
+        <v>-104.419</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>41122.915244</v>
+        <v>41122.915244000003</v>
       </c>
       <c r="AA16" s="1">
-        <v>11.423032</v>
+        <v>11.423031999999999</v>
       </c>
       <c r="AB16" s="1">
-        <v>1226.480000</v>
+        <v>1226.48</v>
       </c>
       <c r="AC16" s="1">
-        <v>-89.088200</v>
+        <v>-89.088200000000001</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>41133.315352</v>
+        <v>41133.315351999998</v>
       </c>
       <c r="AF16" s="1">
-        <v>11.425921</v>
+        <v>11.425921000000001</v>
       </c>
       <c r="AG16" s="1">
-        <v>1231.400000</v>
+        <v>1231.4000000000001</v>
       </c>
       <c r="AH16" s="1">
-        <v>-85.221400</v>
+        <v>-85.221400000000003</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>41143.812154</v>
+        <v>41143.812153999999</v>
       </c>
       <c r="AK16" s="1">
         <v>11.428837</v>
       </c>
       <c r="AL16" s="1">
-        <v>1238.760000</v>
+        <v>1238.76</v>
       </c>
       <c r="AM16" s="1">
-        <v>-89.235900</v>
+        <v>-89.235900000000001</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>41154.589228</v>
+        <v>41154.589227999997</v>
       </c>
       <c r="AP16" s="1">
-        <v>11.431830</v>
+        <v>11.43183</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1246.880000</v>
+        <v>1246.8800000000001</v>
       </c>
       <c r="AR16" s="1">
-        <v>-101.481000</v>
+        <v>-101.48099999999999</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>41165.613805</v>
+        <v>41165.613805000001</v>
       </c>
       <c r="AU16" s="1">
-        <v>11.434893</v>
+        <v>11.434893000000001</v>
       </c>
       <c r="AV16" s="1">
-        <v>1256.870000</v>
+        <v>1256.8699999999999</v>
       </c>
       <c r="AW16" s="1">
-        <v>-121.076000</v>
+        <v>-121.07599999999999</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
         <v>41176.614576</v>
@@ -4229,28 +4645,28 @@
         <v>11.437948</v>
       </c>
       <c r="BA16" s="1">
-        <v>1265.270000</v>
+        <v>1265.27</v>
       </c>
       <c r="BB16" s="1">
-        <v>-138.762000</v>
+        <v>-138.762</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>41189.452526</v>
+        <v>41189.452526000001</v>
       </c>
       <c r="BE16" s="1">
-        <v>11.441515</v>
+        <v>11.441515000000001</v>
       </c>
       <c r="BF16" s="1">
-        <v>1304.990000</v>
+        <v>1304.99</v>
       </c>
       <c r="BG16" s="1">
-        <v>-221.782000</v>
+        <v>-221.78200000000001</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
         <v>41202.645117</v>
@@ -4259,210 +4675,210 @@
         <v>11.445179</v>
       </c>
       <c r="BK16" s="1">
-        <v>1374.200000</v>
+        <v>1374.2</v>
       </c>
       <c r="BL16" s="1">
-        <v>-360.759000</v>
+        <v>-360.75900000000001</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>41215.696843</v>
+        <v>41215.696842999998</v>
       </c>
       <c r="BO16" s="1">
         <v>11.448805</v>
       </c>
       <c r="BP16" s="1">
-        <v>1488.310000</v>
+        <v>1488.31</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-588.016000</v>
+        <v>-588.01599999999996</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>41226.649017</v>
+        <v>41226.649017000003</v>
       </c>
       <c r="BT16" s="1">
-        <v>11.451847</v>
+        <v>11.451847000000001</v>
       </c>
       <c r="BU16" s="1">
-        <v>1621.040000</v>
+        <v>1621.04</v>
       </c>
       <c r="BV16" s="1">
-        <v>-845.705000</v>
+        <v>-845.70500000000004</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>41237.484142</v>
+        <v>41237.484142000001</v>
       </c>
       <c r="BY16" s="1">
-        <v>11.454857</v>
+        <v>11.454857000000001</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1774.290000</v>
+        <v>1774.29</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1125.910000</v>
+        <v>-1125.9100000000001</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>41249.708512</v>
+        <v>41249.708511999997</v>
       </c>
       <c r="CD16" s="1">
         <v>11.458252</v>
       </c>
       <c r="CE16" s="1">
-        <v>2197.100000</v>
+        <v>2197.1</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1808.040000</v>
+        <v>-1808.04</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>41064.846579</v>
+        <v>41064.846578999997</v>
       </c>
       <c r="B17" s="1">
-        <v>11.406902</v>
+        <v>11.406902000000001</v>
       </c>
       <c r="C17" s="1">
-        <v>1160.030000</v>
+        <v>1160.03</v>
       </c>
       <c r="D17" s="1">
-        <v>-242.130000</v>
+        <v>-242.13</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>41075.294805</v>
+        <v>41075.294804999998</v>
       </c>
       <c r="G17" s="1">
-        <v>11.409804</v>
+        <v>11.409803999999999</v>
       </c>
       <c r="H17" s="1">
-        <v>1178.920000</v>
+        <v>1178.92</v>
       </c>
       <c r="I17" s="1">
-        <v>-203.714000</v>
+        <v>-203.714</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>41085.747495</v>
+        <v>41085.747495000003</v>
       </c>
       <c r="L17" s="1">
         <v>11.412708</v>
       </c>
       <c r="M17" s="1">
-        <v>1203.880000</v>
+        <v>1203.8800000000001</v>
       </c>
       <c r="N17" s="1">
-        <v>-143.672000</v>
+        <v>-143.672</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>41096.362377</v>
+        <v>41096.362376999998</v>
       </c>
       <c r="Q17" s="1">
         <v>11.415656</v>
       </c>
       <c r="R17" s="1">
-        <v>1211.220000</v>
+        <v>1211.22</v>
       </c>
       <c r="S17" s="1">
-        <v>-123.248000</v>
+        <v>-123.248</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>41106.778363</v>
+        <v>41106.778362999998</v>
       </c>
       <c r="V17" s="1">
-        <v>11.418550</v>
+        <v>11.41855</v>
       </c>
       <c r="W17" s="1">
-        <v>1218.670000</v>
+        <v>1218.67</v>
       </c>
       <c r="X17" s="1">
-        <v>-104.363000</v>
+        <v>-104.363</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>41123.196439</v>
+        <v>41123.196438999999</v>
       </c>
       <c r="AA17" s="1">
-        <v>11.423110</v>
+        <v>11.423109999999999</v>
       </c>
       <c r="AB17" s="1">
-        <v>1226.510000</v>
+        <v>1226.51</v>
       </c>
       <c r="AC17" s="1">
-        <v>-88.964800</v>
+        <v>-88.964799999999997</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>41133.657096</v>
+        <v>41133.657096000003</v>
       </c>
       <c r="AF17" s="1">
-        <v>11.426016</v>
+        <v>11.426016000000001</v>
       </c>
       <c r="AG17" s="1">
-        <v>1231.350000</v>
+        <v>1231.3499999999999</v>
       </c>
       <c r="AH17" s="1">
-        <v>-85.281800</v>
+        <v>-85.281800000000004</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>41144.158858</v>
+        <v>41144.158858000003</v>
       </c>
       <c r="AK17" s="1">
-        <v>11.428933</v>
+        <v>11.428933000000001</v>
       </c>
       <c r="AL17" s="1">
-        <v>1238.770000</v>
+        <v>1238.77</v>
       </c>
       <c r="AM17" s="1">
-        <v>-89.238000</v>
+        <v>-89.238</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>41154.972677</v>
+        <v>41154.972676999998</v>
       </c>
       <c r="AP17" s="1">
         <v>11.431937</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1246.850000</v>
+        <v>1246.8499999999999</v>
       </c>
       <c r="AR17" s="1">
-        <v>-101.490000</v>
+        <v>-101.49</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
         <v>41165.974424</v>
@@ -4471,270 +4887,270 @@
         <v>11.434993</v>
       </c>
       <c r="AV17" s="1">
-        <v>1256.870000</v>
+        <v>1256.8699999999999</v>
       </c>
       <c r="AW17" s="1">
-        <v>-121.078000</v>
+        <v>-121.078</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>41176.974671</v>
+        <v>41176.974671000004</v>
       </c>
       <c r="AZ17" s="1">
-        <v>11.438049</v>
+        <v>11.438048999999999</v>
       </c>
       <c r="BA17" s="1">
-        <v>1265.280000</v>
+        <v>1265.28</v>
       </c>
       <c r="BB17" s="1">
-        <v>-138.771000</v>
+        <v>-138.77099999999999</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>41189.815598</v>
+        <v>41189.815598000001</v>
       </c>
       <c r="BE17" s="1">
-        <v>11.441615</v>
+        <v>11.441615000000001</v>
       </c>
       <c r="BF17" s="1">
-        <v>1305.060000</v>
+        <v>1305.06</v>
       </c>
       <c r="BG17" s="1">
-        <v>-221.769000</v>
+        <v>-221.76900000000001</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>41203.069196</v>
+        <v>41203.069195999997</v>
       </c>
       <c r="BJ17" s="1">
         <v>11.445297</v>
       </c>
       <c r="BK17" s="1">
-        <v>1374.180000</v>
+        <v>1374.18</v>
       </c>
       <c r="BL17" s="1">
-        <v>-360.766000</v>
+        <v>-360.76600000000002</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>41216.126380</v>
+        <v>41216.126380000002</v>
       </c>
       <c r="BO17" s="1">
         <v>11.448924</v>
       </c>
       <c r="BP17" s="1">
-        <v>1488.320000</v>
+        <v>1488.32</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-587.960000</v>
+        <v>-587.96</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>41227.079068</v>
+        <v>41227.079067999999</v>
       </c>
       <c r="BT17" s="1">
-        <v>11.451966</v>
+        <v>11.451966000000001</v>
       </c>
       <c r="BU17" s="1">
-        <v>1621.170000</v>
+        <v>1621.17</v>
       </c>
       <c r="BV17" s="1">
-        <v>-845.846000</v>
+        <v>-845.846</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>41237.905710</v>
+        <v>41237.905709999999</v>
       </c>
       <c r="BY17" s="1">
         <v>11.454974</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1774.060000</v>
+        <v>1774.06</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1125.890000</v>
+        <v>-1125.8900000000001</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>41250.239230</v>
+        <v>41250.239229999999</v>
       </c>
       <c r="CD17" s="1">
-        <v>11.458400</v>
+        <v>11.458399999999999</v>
       </c>
       <c r="CE17" s="1">
-        <v>2196.560000</v>
+        <v>2196.56</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1809.890000</v>
+        <v>-1809.89</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>41065.221090</v>
+        <v>41065.221089999999</v>
       </c>
       <c r="B18" s="1">
-        <v>11.407006</v>
+        <v>11.407006000000001</v>
       </c>
       <c r="C18" s="1">
-        <v>1159.830000</v>
+        <v>1159.83</v>
       </c>
       <c r="D18" s="1">
-        <v>-242.331000</v>
+        <v>-242.33099999999999</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>41075.676726</v>
+        <v>41075.676725999998</v>
       </c>
       <c r="G18" s="1">
-        <v>11.409910</v>
+        <v>11.40991</v>
       </c>
       <c r="H18" s="1">
-        <v>1178.840000</v>
+        <v>1178.8399999999999</v>
       </c>
       <c r="I18" s="1">
-        <v>-203.405000</v>
+        <v>-203.405</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>41086.134407</v>
+        <v>41086.134406999998</v>
       </c>
       <c r="L18" s="1">
         <v>11.412815</v>
       </c>
       <c r="M18" s="1">
-        <v>1203.720000</v>
+        <v>1203.72</v>
       </c>
       <c r="N18" s="1">
-        <v>-143.513000</v>
+        <v>-143.51300000000001</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>41096.711092</v>
+        <v>41096.711091999998</v>
       </c>
       <c r="Q18" s="1">
         <v>11.415753</v>
       </c>
       <c r="R18" s="1">
-        <v>1211.250000</v>
+        <v>1211.25</v>
       </c>
       <c r="S18" s="1">
-        <v>-123.250000</v>
+        <v>-123.25</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>41107.123083</v>
+        <v>41107.123082999999</v>
       </c>
       <c r="V18" s="1">
         <v>11.418645</v>
       </c>
       <c r="W18" s="1">
-        <v>1218.580000</v>
+        <v>1218.58</v>
       </c>
       <c r="X18" s="1">
-        <v>-104.357000</v>
+        <v>-104.357</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>41123.540166</v>
+        <v>41123.540165999999</v>
       </c>
       <c r="AA18" s="1">
         <v>11.423206</v>
       </c>
       <c r="AB18" s="1">
-        <v>1226.590000</v>
+        <v>1226.5899999999999</v>
       </c>
       <c r="AC18" s="1">
-        <v>-89.062500</v>
+        <v>-89.0625</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>41134.002777</v>
+        <v>41134.002777000002</v>
       </c>
       <c r="AF18" s="1">
         <v>11.426112</v>
       </c>
       <c r="AG18" s="1">
-        <v>1231.450000</v>
+        <v>1231.45</v>
       </c>
       <c r="AH18" s="1">
-        <v>-85.253500</v>
+        <v>-85.253500000000003</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>41144.508042</v>
+        <v>41144.508042000001</v>
       </c>
       <c r="AK18" s="1">
-        <v>11.429030</v>
+        <v>11.429029999999999</v>
       </c>
       <c r="AL18" s="1">
-        <v>1238.790000</v>
+        <v>1238.79</v>
       </c>
       <c r="AM18" s="1">
-        <v>-89.220400</v>
+        <v>-89.220399999999998</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>41155.334747</v>
+        <v>41155.334747000001</v>
       </c>
       <c r="AP18" s="1">
-        <v>11.432037</v>
+        <v>11.432036999999999</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1246.860000</v>
+        <v>1246.8599999999999</v>
       </c>
       <c r="AR18" s="1">
-        <v>-101.491000</v>
+        <v>-101.491</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>41166.342430</v>
+        <v>41166.342429999997</v>
       </c>
       <c r="AU18" s="1">
         <v>11.435095</v>
       </c>
       <c r="AV18" s="1">
-        <v>1256.850000</v>
+        <v>1256.8499999999999</v>
       </c>
       <c r="AW18" s="1">
-        <v>-121.083000</v>
+        <v>-121.083</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
         <v>41177.331822</v>
@@ -4743,345 +5159,345 @@
         <v>11.438148</v>
       </c>
       <c r="BA18" s="1">
-        <v>1265.280000</v>
+        <v>1265.28</v>
       </c>
       <c r="BB18" s="1">
-        <v>-138.771000</v>
+        <v>-138.77099999999999</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>41190.179165</v>
+        <v>41190.179165000001</v>
       </c>
       <c r="BE18" s="1">
         <v>11.441716</v>
       </c>
       <c r="BF18" s="1">
-        <v>1305.020000</v>
+        <v>1305.02</v>
       </c>
       <c r="BG18" s="1">
-        <v>-221.812000</v>
+        <v>-221.81200000000001</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>41203.911403</v>
+        <v>41203.911402999998</v>
       </c>
       <c r="BJ18" s="1">
-        <v>11.445531</v>
+        <v>11.445531000000001</v>
       </c>
       <c r="BK18" s="1">
-        <v>1374.170000</v>
+        <v>1374.17</v>
       </c>
       <c r="BL18" s="1">
-        <v>-360.717000</v>
+        <v>-360.71699999999998</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>41216.516234</v>
+        <v>41216.516234000002</v>
       </c>
       <c r="BO18" s="1">
-        <v>11.449032</v>
+        <v>11.449032000000001</v>
       </c>
       <c r="BP18" s="1">
-        <v>1488.350000</v>
+        <v>1488.35</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-587.987000</v>
+        <v>-587.98699999999997</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>41227.489759</v>
+        <v>41227.489758999996</v>
       </c>
       <c r="BT18" s="1">
-        <v>11.452080</v>
+        <v>11.45208</v>
       </c>
       <c r="BU18" s="1">
-        <v>1621.290000</v>
+        <v>1621.29</v>
       </c>
       <c r="BV18" s="1">
-        <v>-845.628000</v>
+        <v>-845.62800000000004</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>41238.330781</v>
+        <v>41238.330780999997</v>
       </c>
       <c r="BY18" s="1">
         <v>11.455092</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1774.020000</v>
+        <v>1774.02</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1125.900000</v>
+        <v>-1125.9000000000001</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>41251.071057</v>
+        <v>41251.071057000001</v>
       </c>
       <c r="CD18" s="1">
         <v>11.458631</v>
       </c>
       <c r="CE18" s="1">
-        <v>2198.870000</v>
+        <v>2198.87</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1809.710000</v>
+        <v>-1809.71</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>41065.564290</v>
+        <v>41065.564290000002</v>
       </c>
       <c r="B19" s="1">
-        <v>11.407101</v>
+        <v>11.407101000000001</v>
       </c>
       <c r="C19" s="1">
-        <v>1160.010000</v>
+        <v>1160.01</v>
       </c>
       <c r="D19" s="1">
-        <v>-242.355000</v>
+        <v>-242.35499999999999</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
         <v>41076.022437</v>
       </c>
       <c r="G19" s="1">
-        <v>11.410006</v>
+        <v>11.410005999999999</v>
       </c>
       <c r="H19" s="1">
-        <v>1178.710000</v>
+        <v>1178.71</v>
       </c>
       <c r="I19" s="1">
-        <v>-203.478000</v>
+        <v>-203.47800000000001</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>41086.484055</v>
+        <v>41086.484055000001</v>
       </c>
       <c r="L19" s="1">
         <v>11.412912</v>
       </c>
       <c r="M19" s="1">
-        <v>1203.660000</v>
+        <v>1203.6600000000001</v>
       </c>
       <c r="N19" s="1">
-        <v>-143.463000</v>
+        <v>-143.46299999999999</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>41097.060248</v>
+        <v>41097.060248000002</v>
       </c>
       <c r="Q19" s="1">
-        <v>11.415850</v>
+        <v>11.415850000000001</v>
       </c>
       <c r="R19" s="1">
-        <v>1211.260000</v>
+        <v>1211.26</v>
       </c>
       <c r="S19" s="1">
-        <v>-123.275000</v>
+        <v>-123.27500000000001</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>41107.469434</v>
+        <v>41107.469433999999</v>
       </c>
       <c r="V19" s="1">
         <v>11.418742</v>
       </c>
       <c r="W19" s="1">
-        <v>1218.590000</v>
+        <v>1218.5899999999999</v>
       </c>
       <c r="X19" s="1">
-        <v>-104.362000</v>
+        <v>-104.36199999999999</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>41123.960313</v>
+        <v>41123.960313000003</v>
       </c>
       <c r="AA19" s="1">
-        <v>11.423322</v>
+        <v>11.423322000000001</v>
       </c>
       <c r="AB19" s="1">
-        <v>1226.460000</v>
+        <v>1226.46</v>
       </c>
       <c r="AC19" s="1">
-        <v>-89.016500</v>
+        <v>-89.016499999999994</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
         <v>41134.424411</v>
       </c>
       <c r="AF19" s="1">
-        <v>11.426229</v>
+        <v>11.426228999999999</v>
       </c>
       <c r="AG19" s="1">
-        <v>1231.370000</v>
+        <v>1231.3699999999999</v>
       </c>
       <c r="AH19" s="1">
-        <v>-85.284100</v>
+        <v>-85.284099999999995</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>41144.936586</v>
+        <v>41144.936586000003</v>
       </c>
       <c r="AK19" s="1">
-        <v>11.429149</v>
+        <v>11.429149000000001</v>
       </c>
       <c r="AL19" s="1">
-        <v>1238.770000</v>
+        <v>1238.77</v>
       </c>
       <c r="AM19" s="1">
-        <v>-89.214000</v>
+        <v>-89.213999999999999</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
         <v>41155.754363</v>
       </c>
       <c r="AP19" s="1">
-        <v>11.432154</v>
+        <v>11.432154000000001</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1246.870000</v>
+        <v>1246.8699999999999</v>
       </c>
       <c r="AR19" s="1">
-        <v>-101.472000</v>
+        <v>-101.47199999999999</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>41166.757611</v>
+        <v>41166.757611000001</v>
       </c>
       <c r="AU19" s="1">
-        <v>11.435210</v>
+        <v>11.43521</v>
       </c>
       <c r="AV19" s="1">
-        <v>1256.870000</v>
+        <v>1256.8699999999999</v>
       </c>
       <c r="AW19" s="1">
-        <v>-121.068000</v>
+        <v>-121.068</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>41177.743470</v>
+        <v>41177.743470000001</v>
       </c>
       <c r="AZ19" s="1">
         <v>11.438262</v>
       </c>
       <c r="BA19" s="1">
-        <v>1265.280000</v>
+        <v>1265.28</v>
       </c>
       <c r="BB19" s="1">
-        <v>-138.755000</v>
+        <v>-138.755</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>41190.727741</v>
+        <v>41190.727741000002</v>
       </c>
       <c r="BE19" s="1">
-        <v>11.441869</v>
+        <v>11.441869000000001</v>
       </c>
       <c r="BF19" s="1">
-        <v>1305.040000</v>
+        <v>1305.04</v>
       </c>
       <c r="BG19" s="1">
-        <v>-221.781000</v>
+        <v>-221.78100000000001</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>41204.773945</v>
+        <v>41204.773945000001</v>
       </c>
       <c r="BJ19" s="1">
-        <v>11.445771</v>
+        <v>11.445771000000001</v>
       </c>
       <c r="BK19" s="1">
-        <v>1374.170000</v>
+        <v>1374.17</v>
       </c>
       <c r="BL19" s="1">
-        <v>-360.730000</v>
+        <v>-360.73</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
         <v>41216.934363</v>
       </c>
       <c r="BO19" s="1">
-        <v>11.449148</v>
+        <v>11.449147999999999</v>
       </c>
       <c r="BP19" s="1">
-        <v>1488.420000</v>
+        <v>1488.42</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-588.036000</v>
+        <v>-588.03599999999994</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>41228.230251</v>
+        <v>41228.230251000001</v>
       </c>
       <c r="BT19" s="1">
-        <v>11.452286</v>
+        <v>11.452286000000001</v>
       </c>
       <c r="BU19" s="1">
-        <v>1621.310000</v>
+        <v>1621.31</v>
       </c>
       <c r="BV19" s="1">
-        <v>-845.553000</v>
+        <v>-845.553</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>41238.809917</v>
+        <v>41238.809916999999</v>
       </c>
       <c r="BY19" s="1">
         <v>11.455225</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1774.270000</v>
+        <v>1774.27</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1125.900000</v>
+        <v>-1125.9000000000001</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
         <v>41251.278348</v>
@@ -5090,273 +5506,273 @@
         <v>11.458688</v>
       </c>
       <c r="CE19" s="1">
-        <v>2198.400000</v>
+        <v>2198.4</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1807.420000</v>
+        <v>-1807.42</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>41065.907028</v>
+        <v>41065.907028000001</v>
       </c>
       <c r="B20" s="1">
-        <v>11.407196</v>
+        <v>11.407196000000001</v>
       </c>
       <c r="C20" s="1">
-        <v>1159.790000</v>
+        <v>1159.79</v>
       </c>
       <c r="D20" s="1">
-        <v>-242.126000</v>
+        <v>-242.126</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>41076.365704</v>
+        <v>41076.365704000003</v>
       </c>
       <c r="G20" s="1">
         <v>11.410102</v>
       </c>
       <c r="H20" s="1">
-        <v>1178.480000</v>
+        <v>1178.48</v>
       </c>
       <c r="I20" s="1">
-        <v>-203.960000</v>
+        <v>-203.96</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>41086.827783</v>
+        <v>41086.827783000001</v>
       </c>
       <c r="L20" s="1">
         <v>11.413008</v>
       </c>
       <c r="M20" s="1">
-        <v>1203.710000</v>
+        <v>1203.71</v>
       </c>
       <c r="N20" s="1">
-        <v>-143.239000</v>
+        <v>-143.239</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>41097.473911</v>
+        <v>41097.473911000001</v>
       </c>
       <c r="Q20" s="1">
         <v>11.415965</v>
       </c>
       <c r="R20" s="1">
-        <v>1211.240000</v>
+        <v>1211.24</v>
       </c>
       <c r="S20" s="1">
-        <v>-123.331000</v>
+        <v>-123.331</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>41107.884480</v>
+        <v>41107.884480000001</v>
       </c>
       <c r="V20" s="1">
-        <v>11.418857</v>
+        <v>11.418856999999999</v>
       </c>
       <c r="W20" s="1">
-        <v>1218.550000</v>
+        <v>1218.55</v>
       </c>
       <c r="X20" s="1">
-        <v>-104.416000</v>
+        <v>-104.416</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>41124.241543</v>
+        <v>41124.241542999996</v>
       </c>
       <c r="AA20" s="1">
-        <v>11.423400</v>
+        <v>11.423400000000001</v>
       </c>
       <c r="AB20" s="1">
-        <v>1226.460000</v>
+        <v>1226.46</v>
       </c>
       <c r="AC20" s="1">
-        <v>-89.068300</v>
+        <v>-89.068299999999994</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>41134.711062</v>
+        <v>41134.711062000002</v>
       </c>
       <c r="AF20" s="1">
         <v>11.426309</v>
       </c>
       <c r="AG20" s="1">
-        <v>1231.410000</v>
+        <v>1231.4100000000001</v>
       </c>
       <c r="AH20" s="1">
-        <v>-85.261300</v>
+        <v>-85.261300000000006</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
         <v>41145.217848</v>
       </c>
       <c r="AK20" s="1">
-        <v>11.429227</v>
+        <v>11.429226999999999</v>
       </c>
       <c r="AL20" s="1">
-        <v>1238.800000</v>
+        <v>1238.8</v>
       </c>
       <c r="AM20" s="1">
-        <v>-89.219300</v>
+        <v>-89.219300000000004</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>41156.054938</v>
+        <v>41156.054938000001</v>
       </c>
       <c r="AP20" s="1">
-        <v>11.432237</v>
+        <v>11.432237000000001</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1246.870000</v>
+        <v>1246.8699999999999</v>
       </c>
       <c r="AR20" s="1">
-        <v>-101.513000</v>
+        <v>-101.51300000000001</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>41167.070091</v>
+        <v>41167.070091000001</v>
       </c>
       <c r="AU20" s="1">
         <v>11.435297</v>
       </c>
       <c r="AV20" s="1">
-        <v>1256.860000</v>
+        <v>1256.8599999999999</v>
       </c>
       <c r="AW20" s="1">
-        <v>-121.084000</v>
+        <v>-121.084</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>41178.050989</v>
+        <v>41178.050989000003</v>
       </c>
       <c r="AZ20" s="1">
         <v>11.438347</v>
       </c>
       <c r="BA20" s="1">
-        <v>1265.270000</v>
+        <v>1265.27</v>
       </c>
       <c r="BB20" s="1">
-        <v>-138.779000</v>
+        <v>-138.779</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>41191.257965</v>
+        <v>41191.257964999997</v>
       </c>
       <c r="BE20" s="1">
-        <v>11.442016</v>
+        <v>11.442016000000001</v>
       </c>
       <c r="BF20" s="1">
-        <v>1305.020000</v>
+        <v>1305.02</v>
       </c>
       <c r="BG20" s="1">
-        <v>-221.806000</v>
+        <v>-221.80600000000001</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>41205.429657</v>
+        <v>41205.429657000001</v>
       </c>
       <c r="BJ20" s="1">
-        <v>11.445953</v>
+        <v>11.445952999999999</v>
       </c>
       <c r="BK20" s="1">
-        <v>1374.190000</v>
+        <v>1374.19</v>
       </c>
       <c r="BL20" s="1">
-        <v>-360.744000</v>
+        <v>-360.74400000000003</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>41217.643642</v>
+        <v>41217.643642000003</v>
       </c>
       <c r="BO20" s="1">
-        <v>11.449345</v>
+        <v>11.449344999999999</v>
       </c>
       <c r="BP20" s="1">
-        <v>1488.360000</v>
+        <v>1488.36</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-587.984000</v>
+        <v>-587.98400000000004</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>41228.346847</v>
+        <v>41228.346847000001</v>
       </c>
       <c r="BT20" s="1">
-        <v>11.452319</v>
+        <v>11.452318999999999</v>
       </c>
       <c r="BU20" s="1">
-        <v>1621.320000</v>
+        <v>1621.32</v>
       </c>
       <c r="BV20" s="1">
-        <v>-845.443000</v>
+        <v>-845.44299999999998</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>41239.195804</v>
+        <v>41239.195804000003</v>
       </c>
       <c r="BY20" s="1">
         <v>11.455332</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1774.070000</v>
+        <v>1774.07</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1125.850000</v>
+        <v>-1125.8499999999999</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
         <v>41251.794684</v>
       </c>
       <c r="CD20" s="1">
-        <v>11.458832</v>
+        <v>11.458831999999999</v>
       </c>
       <c r="CE20" s="1">
-        <v>2199.070000</v>
+        <v>2199.0700000000002</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1808.600000</v>
+        <v>-1808.6</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
         <v>41066.326642</v>
       </c>
@@ -5364,300 +5780,300 @@
         <v>11.407313</v>
       </c>
       <c r="C21" s="1">
-        <v>1160.080000</v>
+        <v>1160.08</v>
       </c>
       <c r="D21" s="1">
-        <v>-242.448000</v>
+        <v>-242.44800000000001</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>41076.788756</v>
+        <v>41076.788756000002</v>
       </c>
       <c r="G21" s="1">
         <v>11.410219</v>
       </c>
       <c r="H21" s="1">
-        <v>1178.490000</v>
+        <v>1178.49</v>
       </c>
       <c r="I21" s="1">
-        <v>-203.576000</v>
+        <v>-203.57599999999999</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>41087.241477</v>
+        <v>41087.241477000003</v>
       </c>
       <c r="L21" s="1">
-        <v>11.413123</v>
+        <v>11.413123000000001</v>
       </c>
       <c r="M21" s="1">
-        <v>1203.770000</v>
+        <v>1203.77</v>
       </c>
       <c r="N21" s="1">
-        <v>-143.518000</v>
+        <v>-143.518</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>41097.769561</v>
+        <v>41097.769561000001</v>
       </c>
       <c r="Q21" s="1">
-        <v>11.416047</v>
+        <v>11.416047000000001</v>
       </c>
       <c r="R21" s="1">
-        <v>1211.280000</v>
+        <v>1211.28</v>
       </c>
       <c r="S21" s="1">
-        <v>-123.365000</v>
+        <v>-123.36499999999999</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>41108.177609</v>
+        <v>41108.177608999998</v>
       </c>
       <c r="V21" s="1">
-        <v>11.418938</v>
+        <v>11.418938000000001</v>
       </c>
       <c r="W21" s="1">
-        <v>1218.610000</v>
+        <v>1218.6099999999999</v>
       </c>
       <c r="X21" s="1">
-        <v>-104.472000</v>
+        <v>-104.47199999999999</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>41124.586265</v>
+        <v>41124.586264999998</v>
       </c>
       <c r="AA21" s="1">
         <v>11.423496</v>
       </c>
       <c r="AB21" s="1">
-        <v>1226.370000</v>
+        <v>1226.3699999999999</v>
       </c>
       <c r="AC21" s="1">
-        <v>-89.007100</v>
+        <v>-89.007099999999994</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>41135.053799</v>
+        <v>41135.053799000001</v>
       </c>
       <c r="AF21" s="1">
         <v>11.426404</v>
       </c>
       <c r="AG21" s="1">
-        <v>1231.400000</v>
+        <v>1231.4000000000001</v>
       </c>
       <c r="AH21" s="1">
-        <v>-85.272400</v>
+        <v>-85.272400000000005</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>41145.566022</v>
+        <v>41145.566021999999</v>
       </c>
       <c r="AK21" s="1">
-        <v>11.429324</v>
+        <v>11.429323999999999</v>
       </c>
       <c r="AL21" s="1">
-        <v>1238.790000</v>
+        <v>1238.79</v>
       </c>
       <c r="AM21" s="1">
-        <v>-89.173900</v>
+        <v>-89.173900000000003</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>41156.415002</v>
+        <v>41156.415002000002</v>
       </c>
       <c r="AP21" s="1">
         <v>11.432338</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1246.860000</v>
+        <v>1246.8599999999999</v>
       </c>
       <c r="AR21" s="1">
-        <v>-101.477000</v>
+        <v>-101.477</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>41167.437100</v>
+        <v>41167.437100000003</v>
       </c>
       <c r="AU21" s="1">
         <v>11.435399</v>
       </c>
       <c r="AV21" s="1">
-        <v>1256.860000</v>
+        <v>1256.8599999999999</v>
       </c>
       <c r="AW21" s="1">
-        <v>-121.053000</v>
+        <v>-121.053</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>41178.409633</v>
+        <v>41178.409633000003</v>
       </c>
       <c r="AZ21" s="1">
         <v>11.438447</v>
       </c>
       <c r="BA21" s="1">
-        <v>1265.280000</v>
+        <v>1265.28</v>
       </c>
       <c r="BB21" s="1">
-        <v>-138.728000</v>
+        <v>-138.72800000000001</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>41191.626987</v>
+        <v>41191.626987000003</v>
       </c>
       <c r="BE21" s="1">
         <v>11.442119</v>
       </c>
       <c r="BF21" s="1">
-        <v>1305.000000</v>
+        <v>1305</v>
       </c>
       <c r="BG21" s="1">
-        <v>-221.801000</v>
+        <v>-221.80099999999999</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>41206.083880</v>
+        <v>41206.083879999998</v>
       </c>
       <c r="BJ21" s="1">
-        <v>11.446134</v>
+        <v>11.446134000000001</v>
       </c>
       <c r="BK21" s="1">
-        <v>1374.170000</v>
+        <v>1374.17</v>
       </c>
       <c r="BL21" s="1">
-        <v>-360.740000</v>
+        <v>-360.74</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>41217.762184</v>
+        <v>41217.762183999999</v>
       </c>
       <c r="BO21" s="1">
-        <v>11.449378</v>
+        <v>11.449377999999999</v>
       </c>
       <c r="BP21" s="1">
-        <v>1488.360000</v>
+        <v>1488.36</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-588.019000</v>
+        <v>-588.01900000000001</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>41228.786762</v>
+        <v>41228.786762000003</v>
       </c>
       <c r="BT21" s="1">
         <v>11.452441</v>
       </c>
       <c r="BU21" s="1">
-        <v>1621.330000</v>
+        <v>1621.33</v>
       </c>
       <c r="BV21" s="1">
-        <v>-845.433000</v>
+        <v>-845.43299999999999</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>41239.617433</v>
+        <v>41239.617432999999</v>
       </c>
       <c r="BY21" s="1">
         <v>11.455449</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1774.130000</v>
+        <v>1774.13</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1126.040000</v>
+        <v>-1126.04</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>41252.356393</v>
+        <v>41252.356393000002</v>
       </c>
       <c r="CD21" s="1">
         <v>11.458988</v>
       </c>
       <c r="CE21" s="1">
-        <v>2198.410000</v>
+        <v>2198.41</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1810.120000</v>
+        <v>-1810.12</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>41066.606384</v>
+        <v>41066.606383999999</v>
       </c>
       <c r="B22" s="1">
-        <v>11.407391</v>
+        <v>11.407391000000001</v>
       </c>
       <c r="C22" s="1">
-        <v>1160.040000</v>
+        <v>1160.04</v>
       </c>
       <c r="D22" s="1">
-        <v>-242.377000</v>
+        <v>-242.37700000000001</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>41077.052627</v>
+        <v>41077.052626999997</v>
       </c>
       <c r="G22" s="1">
         <v>11.410292</v>
       </c>
       <c r="H22" s="1">
-        <v>1179.060000</v>
+        <v>1179.06</v>
       </c>
       <c r="I22" s="1">
-        <v>-203.734000</v>
+        <v>-203.73400000000001</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>41087.540037</v>
+        <v>41087.540036999999</v>
       </c>
       <c r="L22" s="1">
-        <v>11.413206</v>
+        <v>11.413206000000001</v>
       </c>
       <c r="M22" s="1">
-        <v>1204.030000</v>
+        <v>1204.03</v>
       </c>
       <c r="N22" s="1">
-        <v>-143.456000</v>
+        <v>-143.45599999999999</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
         <v>41098.116232</v>
@@ -5666,482 +6082,482 @@
         <v>11.416143</v>
       </c>
       <c r="R22" s="1">
-        <v>1211.230000</v>
+        <v>1211.23</v>
       </c>
       <c r="S22" s="1">
-        <v>-123.334000</v>
+        <v>-123.334</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>41108.521802</v>
+        <v>41108.521802000003</v>
       </c>
       <c r="V22" s="1">
         <v>11.419034</v>
       </c>
       <c r="W22" s="1">
-        <v>1218.570000</v>
+        <v>1218.57</v>
       </c>
       <c r="X22" s="1">
-        <v>-104.531000</v>
+        <v>-104.53100000000001</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>41124.938885</v>
+        <v>41124.938885000003</v>
       </c>
       <c r="AA22" s="1">
         <v>11.423594</v>
       </c>
       <c r="AB22" s="1">
-        <v>1226.450000</v>
+        <v>1226.45</v>
       </c>
       <c r="AC22" s="1">
-        <v>-88.977300</v>
+        <v>-88.9773</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>41135.397526</v>
+        <v>41135.397526000001</v>
       </c>
       <c r="AF22" s="1">
         <v>11.426499</v>
       </c>
       <c r="AG22" s="1">
-        <v>1231.380000</v>
+        <v>1231.3800000000001</v>
       </c>
       <c r="AH22" s="1">
-        <v>-85.272000</v>
+        <v>-85.272000000000006</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>41145.913703</v>
+        <v>41145.913702999998</v>
       </c>
       <c r="AK22" s="1">
-        <v>11.429420</v>
+        <v>11.42942</v>
       </c>
       <c r="AL22" s="1">
-        <v>1238.780000</v>
+        <v>1238.78</v>
       </c>
       <c r="AM22" s="1">
-        <v>-89.203300</v>
+        <v>-89.203299999999999</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>41156.773639</v>
+        <v>41156.773638999999</v>
       </c>
       <c r="AP22" s="1">
         <v>11.432437</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1246.840000</v>
+        <v>1246.8399999999999</v>
       </c>
       <c r="AR22" s="1">
-        <v>-101.522000</v>
+        <v>-101.52200000000001</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
         <v>41167.801194</v>
       </c>
       <c r="AU22" s="1">
-        <v>11.435500</v>
+        <v>11.435499999999999</v>
       </c>
       <c r="AV22" s="1">
-        <v>1256.860000</v>
+        <v>1256.8599999999999</v>
       </c>
       <c r="AW22" s="1">
-        <v>-121.077000</v>
+        <v>-121.077</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>41178.769692</v>
+        <v>41178.769692000002</v>
       </c>
       <c r="AZ22" s="1">
         <v>11.438547</v>
       </c>
       <c r="BA22" s="1">
-        <v>1265.280000</v>
+        <v>1265.28</v>
       </c>
       <c r="BB22" s="1">
-        <v>-138.745000</v>
+        <v>-138.745</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>41192.322380</v>
+        <v>41192.322379999998</v>
       </c>
       <c r="BE22" s="1">
-        <v>11.442312</v>
+        <v>11.442311999999999</v>
       </c>
       <c r="BF22" s="1">
-        <v>1305.010000</v>
+        <v>1305.01</v>
       </c>
       <c r="BG22" s="1">
-        <v>-221.788000</v>
+        <v>-221.78800000000001</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>41206.459352</v>
+        <v>41206.459351999998</v>
       </c>
       <c r="BJ22" s="1">
         <v>11.446239</v>
       </c>
       <c r="BK22" s="1">
-        <v>1374.180000</v>
+        <v>1374.18</v>
       </c>
       <c r="BL22" s="1">
-        <v>-360.747000</v>
+        <v>-360.74700000000001</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>41218.178824</v>
+        <v>41218.178824000002</v>
       </c>
       <c r="BO22" s="1">
         <v>11.449494</v>
       </c>
       <c r="BP22" s="1">
-        <v>1488.380000</v>
+        <v>1488.38</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-587.963000</v>
+        <v>-587.96299999999997</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>41229.195993</v>
+        <v>41229.195993000001</v>
       </c>
       <c r="BT22" s="1">
-        <v>11.452554</v>
+        <v>11.452553999999999</v>
       </c>
       <c r="BU22" s="1">
-        <v>1621.280000</v>
+        <v>1621.28</v>
       </c>
       <c r="BV22" s="1">
-        <v>-845.320000</v>
+        <v>-845.32</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>41240.051442</v>
+        <v>41240.051442000004</v>
       </c>
       <c r="BY22" s="1">
-        <v>11.455570</v>
+        <v>11.45557</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1774.040000</v>
+        <v>1774.04</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1125.860000</v>
+        <v>-1125.8599999999999</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>41252.875466</v>
+        <v>41252.875465999998</v>
       </c>
       <c r="CD22" s="1">
         <v>11.459132</v>
       </c>
       <c r="CE22" s="1">
-        <v>2198.380000</v>
+        <v>2198.38</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1808.000000</v>
+        <v>-1808</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>41066.945681</v>
+        <v>41066.945680999997</v>
       </c>
       <c r="B23" s="1">
-        <v>11.407485</v>
+        <v>11.407484999999999</v>
       </c>
       <c r="C23" s="1">
-        <v>1160.010000</v>
+        <v>1160.01</v>
       </c>
       <c r="D23" s="1">
-        <v>-242.095000</v>
+        <v>-242.095</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>41077.408258</v>
+        <v>41077.408258000003</v>
       </c>
       <c r="G23" s="1">
-        <v>11.410391</v>
+        <v>11.410391000000001</v>
       </c>
       <c r="H23" s="1">
-        <v>1178.430000</v>
+        <v>1178.43</v>
       </c>
       <c r="I23" s="1">
-        <v>-204.486000</v>
+        <v>-204.48599999999999</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>41087.883795</v>
+        <v>41087.883795000002</v>
       </c>
       <c r="L23" s="1">
-        <v>11.413301</v>
+        <v>11.413301000000001</v>
       </c>
       <c r="M23" s="1">
-        <v>1203.510000</v>
+        <v>1203.51</v>
       </c>
       <c r="N23" s="1">
-        <v>-143.335000</v>
+        <v>-143.33500000000001</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
         <v>41098.466902</v>
       </c>
       <c r="Q23" s="1">
-        <v>11.416241</v>
+        <v>11.416240999999999</v>
       </c>
       <c r="R23" s="1">
-        <v>1211.230000</v>
+        <v>1211.23</v>
       </c>
       <c r="S23" s="1">
-        <v>-123.295000</v>
+        <v>-123.295</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>41108.862588</v>
+        <v>41108.862588000004</v>
       </c>
       <c r="V23" s="1">
-        <v>11.419128</v>
+        <v>11.419128000000001</v>
       </c>
       <c r="W23" s="1">
-        <v>1218.560000</v>
+        <v>1218.56</v>
       </c>
       <c r="X23" s="1">
-        <v>-104.443000</v>
+        <v>-104.443</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>41125.634422</v>
+        <v>41125.634422000003</v>
       </c>
       <c r="AA23" s="1">
-        <v>11.423787</v>
+        <v>11.423787000000001</v>
       </c>
       <c r="AB23" s="1">
-        <v>1226.450000</v>
+        <v>1226.45</v>
       </c>
       <c r="AC23" s="1">
-        <v>-89.060500</v>
+        <v>-89.060500000000005</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>41136.085974</v>
+        <v>41136.085974000001</v>
       </c>
       <c r="AF23" s="1">
         <v>11.426691</v>
       </c>
       <c r="AG23" s="1">
-        <v>1231.410000</v>
+        <v>1231.4100000000001</v>
       </c>
       <c r="AH23" s="1">
-        <v>-85.292400</v>
+        <v>-85.292400000000001</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
         <v>41146.610127</v>
       </c>
       <c r="AK23" s="1">
-        <v>11.429614</v>
+        <v>11.429614000000001</v>
       </c>
       <c r="AL23" s="1">
-        <v>1238.770000</v>
+        <v>1238.77</v>
       </c>
       <c r="AM23" s="1">
-        <v>-89.215600</v>
+        <v>-89.215599999999995</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
         <v>41157.496282</v>
       </c>
       <c r="AP23" s="1">
-        <v>11.432638</v>
+        <v>11.432638000000001</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1246.870000</v>
+        <v>1246.8699999999999</v>
       </c>
       <c r="AR23" s="1">
-        <v>-101.504000</v>
+        <v>-101.504</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>41168.530612</v>
+        <v>41168.530612000002</v>
       </c>
       <c r="AU23" s="1">
         <v>11.435703</v>
       </c>
       <c r="AV23" s="1">
-        <v>1256.850000</v>
+        <v>1256.8499999999999</v>
       </c>
       <c r="AW23" s="1">
-        <v>-121.085000</v>
+        <v>-121.08499999999999</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>41179.484427</v>
+        <v>41179.484427000003</v>
       </c>
       <c r="AZ23" s="1">
         <v>11.438746</v>
       </c>
       <c r="BA23" s="1">
-        <v>1265.250000</v>
+        <v>1265.25</v>
       </c>
       <c r="BB23" s="1">
-        <v>-138.752000</v>
+        <v>-138.75200000000001</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>41192.961225</v>
+        <v>41192.961224999999</v>
       </c>
       <c r="BE23" s="1">
         <v>11.442489</v>
       </c>
       <c r="BF23" s="1">
-        <v>1305.040000</v>
+        <v>1305.04</v>
       </c>
       <c r="BG23" s="1">
-        <v>-221.765000</v>
+        <v>-221.76499999999999</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>41207.211783</v>
+        <v>41207.211782999999</v>
       </c>
       <c r="BJ23" s="1">
         <v>11.446448</v>
       </c>
       <c r="BK23" s="1">
-        <v>1374.190000</v>
+        <v>1374.19</v>
       </c>
       <c r="BL23" s="1">
-        <v>-360.713000</v>
+        <v>-360.71300000000002</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>41218.576017</v>
+        <v>41218.576016999999</v>
       </c>
       <c r="BO23" s="1">
-        <v>11.449604</v>
+        <v>11.449604000000001</v>
       </c>
       <c r="BP23" s="1">
-        <v>1488.370000</v>
+        <v>1488.37</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-587.993000</v>
+        <v>-587.99300000000005</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>41229.629465</v>
+        <v>41229.629464999998</v>
       </c>
       <c r="BT23" s="1">
-        <v>11.452675</v>
+        <v>11.452674999999999</v>
       </c>
       <c r="BU23" s="1">
-        <v>1621.210000</v>
+        <v>1621.21</v>
       </c>
       <c r="BV23" s="1">
-        <v>-845.162000</v>
+        <v>-845.16200000000003</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>41240.486428</v>
+        <v>41240.486427999997</v>
       </c>
       <c r="BY23" s="1">
         <v>11.455691</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1774.090000</v>
+        <v>1774.09</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1125.970000</v>
+        <v>-1125.97</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>41253.395770</v>
+        <v>41253.395770000003</v>
       </c>
       <c r="CD23" s="1">
         <v>11.459277</v>
       </c>
       <c r="CE23" s="1">
-        <v>2196.520000</v>
+        <v>2196.52</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1808.150000</v>
+        <v>-1808.15</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>41067.288882</v>
+        <v>41067.288882000001</v>
       </c>
       <c r="B24" s="1">
-        <v>11.407580</v>
+        <v>11.407579999999999</v>
       </c>
       <c r="C24" s="1">
-        <v>1160.140000</v>
+        <v>1160.1400000000001</v>
       </c>
       <c r="D24" s="1">
-        <v>-242.145000</v>
+        <v>-242.14500000000001</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
         <v>41077.752516</v>
@@ -6150,73 +6566,73 @@
         <v>11.410487</v>
       </c>
       <c r="H24" s="1">
-        <v>1179.560000</v>
+        <v>1179.56</v>
       </c>
       <c r="I24" s="1">
-        <v>-203.735000</v>
+        <v>-203.73500000000001</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>41088.230468</v>
+        <v>41088.230468000002</v>
       </c>
       <c r="L24" s="1">
         <v>11.413397</v>
       </c>
       <c r="M24" s="1">
-        <v>1203.710000</v>
+        <v>1203.71</v>
       </c>
       <c r="N24" s="1">
-        <v>-143.356000</v>
+        <v>-143.35599999999999</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>41099.162326</v>
+        <v>41099.162325999998</v>
       </c>
       <c r="Q24" s="1">
-        <v>11.416434</v>
+        <v>11.416434000000001</v>
       </c>
       <c r="R24" s="1">
-        <v>1211.260000</v>
+        <v>1211.26</v>
       </c>
       <c r="S24" s="1">
-        <v>-123.275000</v>
+        <v>-123.27500000000001</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>41109.551548</v>
+        <v>41109.551548000003</v>
       </c>
       <c r="V24" s="1">
-        <v>11.419320</v>
+        <v>11.419320000000001</v>
       </c>
       <c r="W24" s="1">
-        <v>1218.600000</v>
+        <v>1218.5999999999999</v>
       </c>
       <c r="X24" s="1">
-        <v>-104.337000</v>
+        <v>-104.337</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>41125.982493</v>
+        <v>41125.982493000003</v>
       </c>
       <c r="AA24" s="1">
-        <v>11.423884</v>
+        <v>11.423883999999999</v>
       </c>
       <c r="AB24" s="1">
-        <v>1226.490000</v>
+        <v>1226.49</v>
       </c>
       <c r="AC24" s="1">
-        <v>-89.073900</v>
+        <v>-89.073899999999995</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
         <v>41136.429204</v>
@@ -6225,315 +6641,315 @@
         <v>11.426786</v>
       </c>
       <c r="AG24" s="1">
-        <v>1231.430000</v>
+        <v>1231.43</v>
       </c>
       <c r="AH24" s="1">
-        <v>-85.316900</v>
+        <v>-85.316900000000004</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>41146.958278</v>
+        <v>41146.958277999998</v>
       </c>
       <c r="AK24" s="1">
-        <v>11.429711</v>
+        <v>11.429710999999999</v>
       </c>
       <c r="AL24" s="1">
-        <v>1238.800000</v>
+        <v>1238.8</v>
       </c>
       <c r="AM24" s="1">
-        <v>-89.235800</v>
+        <v>-89.235799999999998</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>41157.854889</v>
+        <v>41157.854889000002</v>
       </c>
       <c r="AP24" s="1">
-        <v>11.432737</v>
+        <v>11.432736999999999</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1246.870000</v>
+        <v>1246.8699999999999</v>
       </c>
       <c r="AR24" s="1">
-        <v>-101.460000</v>
+        <v>-101.46</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>41168.920633</v>
+        <v>41168.920633000002</v>
       </c>
       <c r="AU24" s="1">
-        <v>11.435811</v>
+        <v>11.435810999999999</v>
       </c>
       <c r="AV24" s="1">
-        <v>1256.870000</v>
+        <v>1256.8699999999999</v>
       </c>
       <c r="AW24" s="1">
-        <v>-121.095000</v>
+        <v>-121.095</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>41179.845550</v>
+        <v>41179.845549999998</v>
       </c>
       <c r="AZ24" s="1">
         <v>11.438846</v>
       </c>
       <c r="BA24" s="1">
-        <v>1265.290000</v>
+        <v>1265.29</v>
       </c>
       <c r="BB24" s="1">
-        <v>-138.748000</v>
+        <v>-138.74799999999999</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>41193.094153</v>
+        <v>41193.094152999998</v>
       </c>
       <c r="BE24" s="1">
-        <v>11.442526</v>
+        <v>11.442526000000001</v>
       </c>
       <c r="BF24" s="1">
-        <v>1305.050000</v>
+        <v>1305.05</v>
       </c>
       <c r="BG24" s="1">
-        <v>-221.783000</v>
+        <v>-221.78299999999999</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>41208.316409</v>
+        <v>41208.316408999999</v>
       </c>
       <c r="BJ24" s="1">
         <v>11.446755</v>
       </c>
       <c r="BK24" s="1">
-        <v>1374.180000</v>
+        <v>1374.18</v>
       </c>
       <c r="BL24" s="1">
-        <v>-360.762000</v>
+        <v>-360.762</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>41219.000695</v>
+        <v>41219.000695000002</v>
       </c>
       <c r="BO24" s="1">
         <v>11.449722</v>
       </c>
       <c r="BP24" s="1">
-        <v>1488.400000</v>
+        <v>1488.4</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-587.997000</v>
+        <v>-587.99699999999996</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>41230.055530</v>
+        <v>41230.055529999998</v>
       </c>
       <c r="BT24" s="1">
         <v>11.452793</v>
       </c>
       <c r="BU24" s="1">
-        <v>1621.220000</v>
+        <v>1621.22</v>
       </c>
       <c r="BV24" s="1">
-        <v>-845.048000</v>
+        <v>-845.048</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>41240.918937</v>
+        <v>41240.918937000002</v>
       </c>
       <c r="BY24" s="1">
-        <v>11.455811</v>
+        <v>11.455811000000001</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1774.060000</v>
+        <v>1774.06</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1125.940000</v>
+        <v>-1125.94</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
         <v>41253.912632</v>
       </c>
       <c r="CD24" s="1">
-        <v>11.459420</v>
+        <v>11.45942</v>
       </c>
       <c r="CE24" s="1">
-        <v>2196.800000</v>
+        <v>2196.8000000000002</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1809.830000</v>
+        <v>-1809.83</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>41067.972863</v>
+        <v>41067.972863000003</v>
       </c>
       <c r="B25" s="1">
-        <v>11.407770</v>
+        <v>11.407769999999999</v>
       </c>
       <c r="C25" s="1">
-        <v>1160.060000</v>
+        <v>1160.06</v>
       </c>
       <c r="D25" s="1">
-        <v>-242.470000</v>
+        <v>-242.47</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>41078.440433</v>
+        <v>41078.440433000003</v>
       </c>
       <c r="G25" s="1">
-        <v>11.410678</v>
+        <v>11.410678000000001</v>
       </c>
       <c r="H25" s="1">
-        <v>1178.790000</v>
+        <v>1178.79</v>
       </c>
       <c r="I25" s="1">
-        <v>-203.832000</v>
+        <v>-203.83199999999999</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>41088.921891</v>
+        <v>41088.921890999998</v>
       </c>
       <c r="L25" s="1">
         <v>11.413589</v>
       </c>
       <c r="M25" s="1">
-        <v>1203.560000</v>
+        <v>1203.56</v>
       </c>
       <c r="N25" s="1">
-        <v>-143.345000</v>
+        <v>-143.345</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>41099.512964</v>
+        <v>41099.512964000001</v>
       </c>
       <c r="Q25" s="1">
-        <v>11.416531</v>
+        <v>11.416531000000001</v>
       </c>
       <c r="R25" s="1">
-        <v>1211.320000</v>
+        <v>1211.32</v>
       </c>
       <c r="S25" s="1">
-        <v>-123.301000</v>
+        <v>-123.301</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>41109.894232</v>
+        <v>41109.894231999999</v>
       </c>
       <c r="V25" s="1">
-        <v>11.419415</v>
+        <v>11.419415000000001</v>
       </c>
       <c r="W25" s="1">
-        <v>1218.610000</v>
+        <v>1218.6099999999999</v>
       </c>
       <c r="X25" s="1">
-        <v>-104.341000</v>
+        <v>-104.34099999999999</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>41126.333137</v>
+        <v>41126.333137000001</v>
       </c>
       <c r="AA25" s="1">
-        <v>11.423981</v>
+        <v>11.423980999999999</v>
       </c>
       <c r="AB25" s="1">
-        <v>1226.450000</v>
+        <v>1226.45</v>
       </c>
       <c r="AC25" s="1">
-        <v>-88.982800</v>
+        <v>-88.982799999999997</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>41136.772467</v>
+        <v>41136.772467000003</v>
       </c>
       <c r="AF25" s="1">
         <v>11.426881</v>
       </c>
       <c r="AG25" s="1">
-        <v>1231.380000</v>
+        <v>1231.3800000000001</v>
       </c>
       <c r="AH25" s="1">
-        <v>-85.278900</v>
+        <v>-85.278899999999993</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>41147.304981</v>
+        <v>41147.304981000001</v>
       </c>
       <c r="AK25" s="1">
         <v>11.429807</v>
       </c>
       <c r="AL25" s="1">
-        <v>1238.800000</v>
+        <v>1238.8</v>
       </c>
       <c r="AM25" s="1">
-        <v>-89.271800</v>
+        <v>-89.271799999999999</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>41158.215479</v>
+        <v>41158.215478999999</v>
       </c>
       <c r="AP25" s="1">
         <v>11.432838</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1246.890000</v>
+        <v>1246.8900000000001</v>
       </c>
       <c r="AR25" s="1">
-        <v>-101.475000</v>
+        <v>-101.47499999999999</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>41169.286680</v>
+        <v>41169.286679999997</v>
       </c>
       <c r="AU25" s="1">
-        <v>11.435913</v>
+        <v>11.435912999999999</v>
       </c>
       <c r="AV25" s="1">
-        <v>1256.860000</v>
+        <v>1256.8599999999999</v>
       </c>
       <c r="AW25" s="1">
-        <v>-121.080000</v>
+        <v>-121.08</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
         <v>41180.205146</v>
@@ -6542,225 +6958,225 @@
         <v>11.438946</v>
       </c>
       <c r="BA25" s="1">
-        <v>1265.270000</v>
+        <v>1265.27</v>
       </c>
       <c r="BB25" s="1">
-        <v>-138.759000</v>
+        <v>-138.75899999999999</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>41193.459209</v>
+        <v>41193.459209000001</v>
       </c>
       <c r="BE25" s="1">
-        <v>11.442628</v>
+        <v>11.442627999999999</v>
       </c>
       <c r="BF25" s="1">
-        <v>1305.020000</v>
+        <v>1305.02</v>
       </c>
       <c r="BG25" s="1">
-        <v>-221.789000</v>
+        <v>-221.78899999999999</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>41208.717142</v>
+        <v>41208.717142000001</v>
       </c>
       <c r="BJ25" s="1">
         <v>11.446866</v>
       </c>
       <c r="BK25" s="1">
-        <v>1374.180000</v>
+        <v>1374.18</v>
       </c>
       <c r="BL25" s="1">
-        <v>-360.753000</v>
+        <v>-360.75299999999999</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>41219.394520</v>
+        <v>41219.394520000002</v>
       </c>
       <c r="BO25" s="1">
-        <v>11.449832</v>
+        <v>11.449832000000001</v>
       </c>
       <c r="BP25" s="1">
-        <v>1488.330000</v>
+        <v>1488.33</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-587.968000</v>
+        <v>-587.96799999999996</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>41230.469192</v>
+        <v>41230.469191999997</v>
       </c>
       <c r="BT25" s="1">
-        <v>11.452908</v>
+        <v>11.452908000000001</v>
       </c>
       <c r="BU25" s="1">
-        <v>1621.170000</v>
+        <v>1621.17</v>
       </c>
       <c r="BV25" s="1">
-        <v>-844.964000</v>
+        <v>-844.96400000000006</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>41241.336068</v>
+        <v>41241.336067999997</v>
       </c>
       <c r="BY25" s="1">
-        <v>11.455927</v>
+        <v>11.455927000000001</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1774.130000</v>
+        <v>1774.13</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1125.980000</v>
+        <v>-1125.98</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>41254.435385</v>
+        <v>41254.435384999997</v>
       </c>
       <c r="CD25" s="1">
         <v>11.459565</v>
       </c>
       <c r="CE25" s="1">
-        <v>2196.760000</v>
+        <v>2196.7600000000002</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1809.860000</v>
+        <v>-1809.86</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>41068.315598</v>
+        <v>41068.315598000001</v>
       </c>
       <c r="B26" s="1">
-        <v>11.407865</v>
+        <v>11.407864999999999</v>
       </c>
       <c r="C26" s="1">
-        <v>1160.200000</v>
+        <v>1160.2</v>
       </c>
       <c r="D26" s="1">
-        <v>-242.206000</v>
+        <v>-242.20599999999999</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>41078.785188</v>
+        <v>41078.785188000002</v>
       </c>
       <c r="G26" s="1">
         <v>11.410774</v>
       </c>
       <c r="H26" s="1">
-        <v>1179.170000</v>
+        <v>1179.17</v>
       </c>
       <c r="I26" s="1">
-        <v>-204.049000</v>
+        <v>-204.04900000000001</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>41089.267106</v>
+        <v>41089.267105999999</v>
       </c>
       <c r="L26" s="1">
-        <v>11.413685</v>
+        <v>11.413684999999999</v>
       </c>
       <c r="M26" s="1">
-        <v>1203.740000</v>
+        <v>1203.74</v>
       </c>
       <c r="N26" s="1">
-        <v>-143.613000</v>
+        <v>-143.613</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>41099.859172</v>
+        <v>41099.859171999997</v>
       </c>
       <c r="Q26" s="1">
-        <v>11.416628</v>
+        <v>11.416627999999999</v>
       </c>
       <c r="R26" s="1">
-        <v>1211.310000</v>
+        <v>1211.31</v>
       </c>
       <c r="S26" s="1">
-        <v>-123.368000</v>
+        <v>-123.36799999999999</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>41110.235682</v>
+        <v>41110.235681999999</v>
       </c>
       <c r="V26" s="1">
-        <v>11.419510</v>
+        <v>11.419510000000001</v>
       </c>
       <c r="W26" s="1">
-        <v>1218.520000</v>
+        <v>1218.52</v>
       </c>
       <c r="X26" s="1">
-        <v>-104.321000</v>
+        <v>-104.321</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>41126.990834</v>
+        <v>41126.990833999997</v>
       </c>
       <c r="AA26" s="1">
-        <v>11.424164</v>
+        <v>11.424163999999999</v>
       </c>
       <c r="AB26" s="1">
-        <v>1226.520000</v>
+        <v>1226.52</v>
       </c>
       <c r="AC26" s="1">
-        <v>-89.118100</v>
+        <v>-89.118099999999998</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>41137.423222</v>
+        <v>41137.423221999998</v>
       </c>
       <c r="AF26" s="1">
-        <v>11.427062</v>
+        <v>11.427061999999999</v>
       </c>
       <c r="AG26" s="1">
-        <v>1231.380000</v>
+        <v>1231.3800000000001</v>
       </c>
       <c r="AH26" s="1">
-        <v>-85.277700</v>
+        <v>-85.277699999999996</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>41147.969621</v>
+        <v>41147.969620999997</v>
       </c>
       <c r="AK26" s="1">
         <v>11.429992</v>
       </c>
       <c r="AL26" s="1">
-        <v>1238.790000</v>
+        <v>1238.79</v>
       </c>
       <c r="AM26" s="1">
-        <v>-89.278600</v>
+        <v>-89.278599999999997</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
         <v>41158.899995</v>
@@ -6769,43 +7185,43 @@
         <v>11.433028</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1246.870000</v>
+        <v>1246.8699999999999</v>
       </c>
       <c r="AR26" s="1">
-        <v>-101.462000</v>
+        <v>-101.462</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>41169.959784</v>
+        <v>41169.959783999999</v>
       </c>
       <c r="AU26" s="1">
-        <v>11.436100</v>
+        <v>11.4361</v>
       </c>
       <c r="AV26" s="1">
-        <v>1256.870000</v>
+        <v>1256.8699999999999</v>
       </c>
       <c r="AW26" s="1">
-        <v>-121.070000</v>
+        <v>-121.07</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>41180.865291</v>
+        <v>41180.865291000002</v>
       </c>
       <c r="AZ26" s="1">
-        <v>11.439129</v>
+        <v>11.439128999999999</v>
       </c>
       <c r="BA26" s="1">
-        <v>1265.280000</v>
+        <v>1265.28</v>
       </c>
       <c r="BB26" s="1">
-        <v>-138.742000</v>
+        <v>-138.74199999999999</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
         <v>41193.968104</v>
@@ -6814,73 +7230,73 @@
         <v>11.442769</v>
       </c>
       <c r="BF26" s="1">
-        <v>1305.040000</v>
+        <v>1305.04</v>
       </c>
       <c r="BG26" s="1">
-        <v>-221.789000</v>
+        <v>-221.78899999999999</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>41209.093108</v>
+        <v>41209.093108000001</v>
       </c>
       <c r="BJ26" s="1">
-        <v>11.446970</v>
+        <v>11.44697</v>
       </c>
       <c r="BK26" s="1">
-        <v>1374.180000</v>
+        <v>1374.18</v>
       </c>
       <c r="BL26" s="1">
-        <v>-360.733000</v>
+        <v>-360.733</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>41219.817145</v>
+        <v>41219.817145000001</v>
       </c>
       <c r="BO26" s="1">
         <v>11.449949</v>
       </c>
       <c r="BP26" s="1">
-        <v>1488.320000</v>
+        <v>1488.32</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-587.953000</v>
+        <v>-587.95299999999997</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>41230.901703</v>
+        <v>41230.901703000003</v>
       </c>
       <c r="BT26" s="1">
         <v>11.453028</v>
       </c>
       <c r="BU26" s="1">
-        <v>1621.110000</v>
+        <v>1621.11</v>
       </c>
       <c r="BV26" s="1">
-        <v>-844.999000</v>
+        <v>-844.99900000000002</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>41241.768086</v>
+        <v>41241.768085999996</v>
       </c>
       <c r="BY26" s="1">
         <v>11.456047</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1774.180000</v>
+        <v>1774.18</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1125.860000</v>
+        <v>-1125.8599999999999</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
         <v>41255.037032</v>
@@ -6889,15 +7305,16 @@
         <v>11.459733</v>
       </c>
       <c r="CE26" s="1">
-        <v>2195.810000</v>
+        <v>2195.81</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1808.590000</v>
+        <v>-1808.59</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>